--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -6,13 +6,13 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - ICS_IIT_ISE 114      " sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>Surname</t>
   </si>
@@ -104,6 +104,12 @@
     <t>H190261Z</t>
   </si>
   <si>
+    <t>Chikobvore</t>
+  </si>
+  <si>
+    <t>H170272G</t>
+  </si>
+  <si>
     <t>Chikomo</t>
   </si>
   <si>
@@ -209,6 +215,12 @@
     <t>H190265N</t>
   </si>
   <si>
+    <t>Kararira</t>
+  </si>
+  <si>
+    <t>H150340J</t>
+  </si>
+  <si>
     <t>Katsamba</t>
   </si>
   <si>
@@ -227,6 +239,12 @@
     <t>H190573E</t>
   </si>
   <si>
+    <t>Kuhuni</t>
+  </si>
+  <si>
+    <t>H160475N</t>
+  </si>
+  <si>
     <t>Lunga</t>
   </si>
   <si>
@@ -335,6 +353,12 @@
     <t>H190086F</t>
   </si>
   <si>
+    <t>Mulilima</t>
+  </si>
+  <si>
+    <t>H170174G</t>
+  </si>
+  <si>
     <t>Mupanduki</t>
   </si>
   <si>
@@ -359,6 +383,12 @@
     <t>H190536X</t>
   </si>
   <si>
+    <t>Mutenha</t>
+  </si>
+  <si>
+    <t>H170164H</t>
+  </si>
+  <si>
     <t>Muzoroza</t>
   </si>
   <si>
@@ -389,6 +419,9 @@
     <t>H190424N</t>
   </si>
   <si>
+    <t>Nzenze</t>
+  </si>
+  <si>
     <t>Nzvimbo</t>
   </si>
   <si>
@@ -407,6 +440,12 @@
     <t>H190324P</t>
   </si>
   <si>
+    <t>Ruwende</t>
+  </si>
+  <si>
+    <t>H180128H</t>
+  </si>
+  <si>
     <t>Sakuhwehwe</t>
   </si>
   <si>
@@ -431,6 +470,12 @@
     <t>H190253B</t>
   </si>
   <si>
+    <t>Tembo</t>
+  </si>
+  <si>
+    <t>H170169B</t>
+  </si>
+  <si>
     <t>Tshuma</t>
   </si>
   <si>
@@ -471,6 +516,12 @@
   </si>
   <si>
     <t>H190140Y</t>
+  </si>
+  <si>
+    <t>Zezai</t>
+  </si>
+  <si>
+    <t>H170177W</t>
   </si>
   <si>
     <t>Zivanai</t>
@@ -486,7 +537,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -496,12 +547,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="17"/>
-      <color indexed="8"/>
-      <name val="Georgia"/>
     </font>
     <font>
       <b val="1"/>
@@ -588,36 +633,45 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1700,7 +1754,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1708,14 +1762,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5859" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.0547" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1016" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.78125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.2891" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.57812" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73438" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1755,1167 +1802,1485 @@
       <c r="C2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="8">
+      <c r="B3" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="8">
+      <c r="B4" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="8">
+      <c r="B5" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="8">
+      <c r="B6" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="8">
+      <c r="B7" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="8">
+      <c r="B8" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="8">
+      <c r="B9" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="A10" t="s" s="8">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="8">
+      <c r="B10" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="A11" t="s" s="8">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="8">
+      <c r="B11" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="A12" t="s" s="8">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="8">
+      <c r="B12" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="D12" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="8">
+      <c r="A13" t="s" s="8">
         <v>32</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="B13" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s" s="8">
+      <c r="A14" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="D14" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="A15" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="B15" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s" s="8">
+      <c r="B15" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="D15" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="A16" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="B16" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s" s="8">
+      <c r="B16" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="D16" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="A17" t="s" s="8">
         <v>39</v>
       </c>
-      <c r="B17" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s" s="8">
+      <c r="B17" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="D17" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="A18" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="B18" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s" s="8">
+      <c r="B18" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="D18" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="A19" t="s" s="8">
         <v>43</v>
       </c>
-      <c r="B19" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s" s="8">
+      <c r="B19" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="D19" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="A20" t="s" s="8">
         <v>45</v>
       </c>
-      <c r="B20" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="8">
+      <c r="B20" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="A21" t="s" s="8">
         <v>47</v>
       </c>
-      <c r="B21" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s" s="8">
+      <c r="B21" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="D21" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="A22" t="s" s="8">
         <v>49</v>
       </c>
-      <c r="B22" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s" s="8">
+      <c r="B22" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s" s="9">
         <v>50</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="D22" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="A23" t="s" s="8">
         <v>51</v>
       </c>
-      <c r="B23" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="8">
+      <c r="B23" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="9">
         <v>52</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="D23" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="A24" t="s" s="8">
         <v>53</v>
       </c>
-      <c r="B24" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s" s="8">
+      <c r="B24" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="9">
         <v>54</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" ht="36.35" customHeight="1">
+      <c r="A25" t="s" s="8">
         <v>55</v>
       </c>
-      <c r="B25" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s" s="8">
+      <c r="B25" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="A26" t="s" s="8">
         <v>57</v>
       </c>
-      <c r="B26" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s" s="8">
+      <c r="B26" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s" s="9">
         <v>58</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="D26" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="A27" t="s" s="8">
         <v>59</v>
       </c>
-      <c r="B27" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s" s="8">
+      <c r="B27" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s" s="9">
         <v>60</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="A28" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="B28" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s" s="8">
+      <c r="B28" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="D28" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="A29" t="s" s="8">
         <v>63</v>
       </c>
-      <c r="B29" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s" s="8">
+      <c r="B29" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="A30" t="s" s="8">
         <v>65</v>
       </c>
-      <c r="B30" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s" s="8">
+      <c r="B30" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="D30" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="A31" t="s" s="8">
         <v>67</v>
       </c>
-      <c r="B31" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C31" t="s" s="8">
+      <c r="B31" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="D31" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="A32" t="s" s="8">
         <v>69</v>
       </c>
-      <c r="B32" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s" s="8">
+      <c r="B32" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="A33" t="s" s="8">
         <v>71</v>
       </c>
-      <c r="B33" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="8">
+      <c r="B33" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="A34" t="s" s="8">
         <v>73</v>
       </c>
-      <c r="B34" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s" s="8">
+      <c r="B34" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="A35" t="s" s="8">
         <v>75</v>
       </c>
-      <c r="B35" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s" s="8">
+      <c r="B35" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="D35" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="A36" t="s" s="8">
         <v>77</v>
       </c>
-      <c r="B36" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="8">
+      <c r="B36" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="D36" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="A37" t="s" s="8">
         <v>79</v>
       </c>
-      <c r="B37" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="8">
+      <c r="B37" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="A38" t="s" s="8">
         <v>81</v>
       </c>
-      <c r="B38" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s" s="8">
+      <c r="B38" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="D38" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="A39" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="B39" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s" s="8">
+      <c r="B39" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s" s="9">
         <v>84</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="D39" s="10">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="A40" t="s" s="8">
         <v>85</v>
       </c>
-      <c r="B40" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s" s="8">
+      <c r="B40" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s" s="9">
         <v>86</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="A41" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="B41" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s" s="8">
+      <c r="B41" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="9">
         <v>88</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="D41" s="10">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="A42" t="s" s="8">
         <v>89</v>
       </c>
-      <c r="B42" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s" s="8">
+      <c r="B42" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s" s="9">
         <v>90</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="D42" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="A43" t="s" s="8">
         <v>91</v>
       </c>
-      <c r="B43" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s" s="8">
+      <c r="B43" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s" s="9">
         <v>92</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="D43" s="10">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="A44" t="s" s="8">
         <v>93</v>
       </c>
-      <c r="B44" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s" s="8">
+      <c r="B44" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s" s="9">
         <v>94</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="D44" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="A45" t="s" s="8">
         <v>95</v>
       </c>
-      <c r="B45" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C45" t="s" s="8">
+      <c r="B45" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s" s="9">
         <v>96</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="D45" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" ht="22.35" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="A46" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="B46" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s" s="8">
+      <c r="B46" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s" s="9">
         <v>98</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="D46" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" ht="22.35" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="A47" t="s" s="8">
         <v>99</v>
       </c>
-      <c r="B47" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C47" t="s" s="8">
+      <c r="B47" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="9">
         <v>100</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="D47" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" ht="22.35" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="A48" t="s" s="8">
         <v>101</v>
       </c>
-      <c r="B48" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s" s="8">
+      <c r="B48" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s" s="9">
         <v>102</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="D48" s="10">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" ht="22.35" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="A49" t="s" s="8">
         <v>103</v>
       </c>
-      <c r="B49" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s" s="8">
+      <c r="B49" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="9">
         <v>104</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="D49" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" ht="22.35" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="A50" t="s" s="8">
         <v>105</v>
       </c>
-      <c r="B50" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s" s="8">
+      <c r="B50" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="9">
         <v>106</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" ht="22.35" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="A51" t="s" s="8">
         <v>107</v>
       </c>
-      <c r="B51" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s" s="8">
+      <c r="B51" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s" s="9">
         <v>108</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" ht="22.35" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="A52" t="s" s="8">
         <v>109</v>
       </c>
-      <c r="B52" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s" s="8">
+      <c r="B52" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s" s="9">
         <v>110</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="D52" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" ht="22.35" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="A53" t="s" s="8">
         <v>111</v>
       </c>
-      <c r="B53" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s" s="8">
+      <c r="B53" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s" s="9">
         <v>112</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" ht="22.35" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="A54" t="s" s="8">
         <v>113</v>
       </c>
-      <c r="B54" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s" s="8">
+      <c r="B54" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s" s="9">
         <v>114</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="D54" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" ht="22.35" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="A55" t="s" s="8">
         <v>115</v>
       </c>
-      <c r="B55" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s" s="8">
+      <c r="B55" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="9">
         <v>116</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" ht="22.35" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="A56" t="s" s="8">
         <v>117</v>
       </c>
-      <c r="B56" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s" s="8">
+      <c r="B56" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s" s="9">
         <v>118</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" ht="22.35" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="A57" t="s" s="8">
         <v>119</v>
       </c>
-      <c r="B57" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s" s="8">
+      <c r="B57" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="9">
         <v>120</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="D57" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" ht="22.35" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="A58" t="s" s="8">
         <v>121</v>
       </c>
-      <c r="B58" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s" s="8">
+      <c r="B58" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s" s="9">
         <v>122</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="D58" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" ht="22.35" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="A59" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="B59" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C59" t="s" s="8">
+      <c r="B59" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s" s="9">
         <v>124</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="D59" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="60" ht="22.35" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="A60" t="s" s="8">
         <v>125</v>
       </c>
-      <c r="B60" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s" s="8">
+      <c r="B60" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="D60" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
     </row>
     <row r="61" ht="22.35" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="A61" t="s" s="8">
         <v>127</v>
       </c>
-      <c r="B61" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s" s="8">
+      <c r="B61" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s" s="9">
         <v>128</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="D61" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" ht="22.35" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="A62" t="s" s="8">
         <v>129</v>
       </c>
-      <c r="B62" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s" s="8">
+      <c r="B62" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s" s="9">
         <v>130</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" ht="22.35" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="A63" t="s" s="8">
         <v>131</v>
       </c>
-      <c r="B63" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s" s="8">
+      <c r="B63" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s" s="9">
         <v>132</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="D63" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" ht="22.35" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="A64" t="s" s="8">
         <v>133</v>
       </c>
-      <c r="B64" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s" s="8">
+      <c r="B64" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s" s="9">
         <v>134</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
+      <c r="D64" s="10">
+        <v>0</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" ht="22.35" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="A65" t="s" s="8">
         <v>135</v>
       </c>
-      <c r="B65" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C65" t="s" s="8">
+      <c r="B65" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s" s="9">
+        <v>124</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" ht="22.35" customHeight="1">
+      <c r="A66" t="s" s="8">
         <v>136</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" ht="22.35" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="B66" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s" s="9">
         <v>137</v>
       </c>
-      <c r="B66" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s" s="8">
+      <c r="D66" s="10">
+        <v>0</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" ht="22.35" customHeight="1">
+      <c r="A67" t="s" s="8">
         <v>138</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" ht="22.35" customHeight="1">
-      <c r="A67" t="s" s="7">
+      <c r="B67" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s" s="9">
         <v>139</v>
       </c>
-      <c r="B67" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s" s="8">
+      <c r="D67" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" ht="22.35" customHeight="1">
+      <c r="A68" t="s" s="8">
         <v>140</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" ht="22.35" customHeight="1">
-      <c r="A68" t="s" s="7">
+      <c r="B68" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s" s="9">
         <v>141</v>
       </c>
-      <c r="B68" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s" s="8">
+      <c r="D68" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" ht="22.35" customHeight="1">
+      <c r="A69" t="s" s="8">
         <v>142</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" ht="22.35" customHeight="1">
-      <c r="A69" t="s" s="7">
+      <c r="B69" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s" s="9">
         <v>143</v>
       </c>
-      <c r="B69" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s" s="8">
+      <c r="D69" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" ht="22.35" customHeight="1">
+      <c r="A70" t="s" s="8">
         <v>144</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" ht="22.35" customHeight="1">
-      <c r="A70" t="s" s="7">
+      <c r="B70" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s" s="9">
         <v>145</v>
       </c>
-      <c r="B70" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s" s="8">
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" ht="22.35" customHeight="1">
+      <c r="A71" t="s" s="8">
         <v>146</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-    </row>
-    <row r="71" ht="22.35" customHeight="1">
-      <c r="A71" t="s" s="7">
+      <c r="B71" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s" s="9">
         <v>147</v>
       </c>
-      <c r="B71" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s" s="8">
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" ht="22.35" customHeight="1">
+      <c r="A72" t="s" s="8">
         <v>148</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" ht="22.35" customHeight="1">
-      <c r="A72" t="s" s="7">
+      <c r="B72" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s" s="9">
         <v>149</v>
       </c>
-      <c r="B72" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s" s="8">
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" ht="22.35" customHeight="1">
+      <c r="A73" t="s" s="8">
         <v>150</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" ht="22.35" customHeight="1">
-      <c r="A73" t="s" s="7">
+      <c r="B73" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s" s="9">
         <v>151</v>
       </c>
-      <c r="B73" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s" s="8">
+      <c r="D73" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" ht="22.35" customHeight="1">
+      <c r="A74" t="s" s="8">
         <v>152</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-    </row>
-    <row r="74" ht="22.35" customHeight="1">
-      <c r="A74" t="s" s="7">
+      <c r="B74" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s" s="9">
         <v>153</v>
       </c>
-      <c r="B74" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s" s="8">
+      <c r="D74" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" ht="22.35" customHeight="1">
+      <c r="A75" t="s" s="8">
         <v>154</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="B75" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s" s="9">
+        <v>155</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" ht="22.35" customHeight="1">
+      <c r="A76" t="s" s="8">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>157</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" ht="22.35" customHeight="1">
+      <c r="A77" t="s" s="8">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s" s="9">
+        <v>159</v>
+      </c>
+      <c r="D77" s="10">
+        <v>0</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" ht="22.35" customHeight="1">
+      <c r="A78" t="s" s="8">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s" s="9">
+        <v>161</v>
+      </c>
+      <c r="D78" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" ht="22.35" customHeight="1">
+      <c r="A79" t="s" s="8">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s" s="9">
+        <v>163</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" ht="22.35" customHeight="1">
+      <c r="A80" t="s" s="8">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s" s="9">
+        <v>165</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" ht="22.35" customHeight="1">
+      <c r="A81" t="s" s="8">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s" s="9">
+        <v>167</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" ht="22.35" customHeight="1">
+      <c r="A82" t="s" s="8">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s" s="9">
+        <v>169</v>
+      </c>
+      <c r="D82" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" ht="22.35" customHeight="1">
+      <c r="A83" t="s" s="8">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s" s="9">
+        <v>171</v>
+      </c>
+      <c r="D83" s="10">
+        <v>0</v>
+      </c>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" ht="22.35" customHeight="1">
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>Surname</t>
   </si>
@@ -29,7 +29,7 @@
     <t>AS2</t>
   </si>
   <si>
-    <t>Test_1</t>
+    <t>Quiz_1</t>
   </si>
   <si>
     <t>Test_2</t>
@@ -104,6 +104,12 @@
     <t>H190261Z</t>
   </si>
   <si>
+    <t xml:space="preserve">Chihota </t>
+  </si>
+  <si>
+    <t>H180681F</t>
+  </si>
+  <si>
     <t>Chikobvore</t>
   </si>
   <si>
@@ -275,6 +281,12 @@
     <t>H190313X</t>
   </si>
   <si>
+    <t>Marutya</t>
+  </si>
+  <si>
+    <t>H180079M</t>
+  </si>
+  <si>
     <t>Masundah</t>
   </si>
   <si>
@@ -323,6 +335,12 @@
     <t>H190499w</t>
   </si>
   <si>
+    <t>Moyo</t>
+  </si>
+  <si>
+    <t>H180124A</t>
+  </si>
+  <si>
     <t>Mtetwa</t>
   </si>
   <si>
@@ -458,6 +476,12 @@
     <t>H190782H</t>
   </si>
   <si>
+    <t>Shero</t>
+  </si>
+  <si>
+    <t>H180253Q</t>
+  </si>
+  <si>
     <t>Sithole</t>
   </si>
   <si>
@@ -516,6 +540,12 @@
   </si>
   <si>
     <t>H190140Y</t>
+  </si>
+  <si>
+    <t>Zengeya</t>
+  </si>
+  <si>
+    <t>H170170Q</t>
   </si>
   <si>
     <t>Zezai</t>
@@ -633,7 +663,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -658,6 +688,9 @@
     <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -670,8 +703,8 @@
     <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1754,7 +1787,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1762,7 +1795,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.70312" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2891" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.72656" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1806,1477 +1845,1731 @@
         <v>0</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="9">
+      <c r="B3" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="9">
+      <c r="B4" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="10">
         <v>15</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="9">
+      <c r="B5" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="9">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="9">
+      <c r="B6" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="9">
+      <c r="B7" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="9">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="9">
+      <c r="B8" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="10">
         <v>23</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>0.7</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="9">
+      <c r="B9" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="10">
         <v>25</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="9">
+      <c r="B10" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
         <v>0.7</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="8">
+      <c r="A11" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="9">
+      <c r="B11" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s" s="10">
         <v>29</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="A12" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="9">
+      <c r="B12" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="10">
         <v>31</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" ht="22.35" customHeight="1">
+      <c r="A13" t="s" s="9">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D13" s="11">
         <v>0.63</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" ht="22.35" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11">
         <v>0.6</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s" s="9">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" ht="22.35" customHeight="1">
+      <c r="A15" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="D14" s="10">
+      <c r="B15" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="D15" s="11">
         <v>0.33</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" ht="22.35" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="D16" s="11">
         <v>0.33</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" ht="22.35" customHeight="1">
+      <c r="A17" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11">
         <v>0.8</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" ht="22.35" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="D18" s="11">
         <v>0.67</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="D18" s="10">
+      <c r="E18" s="12"/>
+      <c r="F18" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" ht="22.35" customHeight="1">
+      <c r="A19" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="D19" s="11">
         <v>0.67</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="D19" s="10">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" ht="22.35" customHeight="1">
+      <c r="A20" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="D20" s="11">
         <v>0.7</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="A21" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="B21" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="9">
+      <c r="B21" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s" s="10">
         <v>48</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="D22" s="11">
         <v>0.33</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="8">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>50</v>
-      </c>
-      <c r="D22" s="10">
+      <c r="E22" s="12"/>
+      <c r="F22" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" ht="22.35" customHeight="1">
+      <c r="A23" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="D23" s="11">
         <v>0.6</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="9">
-        <v>52</v>
-      </c>
-      <c r="D23" s="10">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" ht="22.35" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="D24" s="11">
         <v>0.6</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>54</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" ht="36.35" customHeight="1">
-      <c r="A25" t="s" s="8">
+      <c r="E24" s="12"/>
+      <c r="F24" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" ht="22.35" customHeight="1">
+      <c r="A25" t="s" s="9">
         <v>55</v>
       </c>
-      <c r="B25" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s" s="9">
+      <c r="B25" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s" s="10">
         <v>56</v>
       </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="8">
+      <c r="D25" s="11">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" ht="36.35" customHeight="1">
+      <c r="A26" t="s" s="9">
         <v>57</v>
       </c>
-      <c r="B26" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s" s="9">
+      <c r="B26" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s" s="10">
         <v>58</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" ht="22.35" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="D27" s="11">
         <v>0.6</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="8">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>60</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="A28" t="s" s="9">
         <v>61</v>
       </c>
-      <c r="B28" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s" s="9">
+      <c r="B28" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" ht="22.35" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="D29" s="11">
         <v>0.6</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="8">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="A30" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="B30" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s" s="9">
+      <c r="B30" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s" s="10">
         <v>66</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" ht="22.35" customHeight="1">
+      <c r="A31" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="D31" s="11">
         <v>0.8</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="8">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="E31" s="12"/>
+      <c r="F31" s="13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="D32" s="11">
         <v>0.63</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="8">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="8">
+      <c r="A33" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="B33" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="9">
+      <c r="B33" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s" s="10">
         <v>72</v>
       </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="D33" s="11">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="8">
+      <c r="A34" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="B34" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s" s="9">
+      <c r="B34" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="10">
         <v>74</v>
       </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="8">
+      <c r="A35" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="B35" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s" s="9">
+      <c r="B35" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s" s="10">
         <v>76</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="11">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="D36" s="11">
         <v>0.63</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="8">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="D36" s="10">
+      <c r="E36" s="12"/>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" ht="22.35" customHeight="1">
+      <c r="A37" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="D37" s="11">
         <v>0.33</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="8">
+      <c r="A38" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="B38" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s" s="9">
+      <c r="B38" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s" s="10">
         <v>82</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="9">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="D39" s="11">
         <v>0.7</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="8">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>84</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="8">
+      <c r="A40" t="s" s="9">
         <v>85</v>
       </c>
-      <c r="B40" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s" s="9">
+      <c r="B40" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s" s="10">
         <v>86</v>
       </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
+      <c r="D40" s="11">
+        <v>0</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="8">
+      <c r="A41" t="s" s="9">
         <v>87</v>
       </c>
-      <c r="B41" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s" s="9">
+      <c r="B41" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s" s="10">
         <v>88</v>
       </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="8">
+      <c r="A42" t="s" s="9">
         <v>89</v>
       </c>
-      <c r="B42" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C42" t="s" s="9">
+      <c r="B42" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s" s="10">
         <v>90</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" ht="22.35" customHeight="1">
+      <c r="A43" t="s" s="9">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" ht="22.35" customHeight="1">
+      <c r="A44" t="s" s="9">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="D44" s="11">
         <v>0.6</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" t="s" s="8">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="8">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>94</v>
-      </c>
-      <c r="D44" s="10">
+      <c r="E44" s="12"/>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" ht="22.35" customHeight="1">
+      <c r="A45" t="s" s="9">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" ht="22.35" customHeight="1">
+      <c r="A46" t="s" s="9">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="D46" s="11">
         <v>0.7</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="8">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>96</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="E46" s="12"/>
+      <c r="F46" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+    </row>
+    <row r="47" ht="22.35" customHeight="1">
+      <c r="A47" t="s" s="9">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="D47" s="11">
         <v>0.7</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" ht="22.35" customHeight="1">
-      <c r="A46" t="s" s="8">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>98</v>
-      </c>
-      <c r="D46" s="10">
+      <c r="E47" s="12"/>
+      <c r="F47" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" ht="22.35" customHeight="1">
+      <c r="A48" t="s" s="9">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="D48" s="11">
         <v>0.7</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" ht="22.35" customHeight="1">
-      <c r="A47" t="s" s="8">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s" s="9">
-        <v>100</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="E48" s="12"/>
+      <c r="F48" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" ht="22.35" customHeight="1">
+      <c r="A49" t="s" s="9">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="D49" s="11">
         <v>0.6</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" ht="22.35" customHeight="1">
-      <c r="A48" t="s" s="8">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" ht="22.35" customHeight="1">
-      <c r="A49" t="s" s="8">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s" s="9">
-        <v>104</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="E49" s="12"/>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" ht="22.35" customHeight="1">
+      <c r="A50" t="s" s="9">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" ht="22.35" customHeight="1">
+      <c r="A51" t="s" s="9">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" ht="22.35" customHeight="1">
+      <c r="A52" t="s" s="9">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="D52" s="11">
         <v>0.67</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" ht="22.35" customHeight="1">
-      <c r="A50" t="s" s="8">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s" s="9">
-        <v>106</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" ht="22.35" customHeight="1">
-      <c r="A51" t="s" s="8">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s" s="9">
-        <v>108</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" ht="22.35" customHeight="1">
-      <c r="A52" t="s" s="8">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s" s="9">
-        <v>110</v>
-      </c>
-      <c r="D52" s="10">
+      <c r="E52" s="12"/>
+      <c r="F52" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" ht="22.35" customHeight="1">
+      <c r="A53" t="s" s="9">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" ht="22.35" customHeight="1">
+      <c r="A54" t="s" s="9">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" ht="22.35" customHeight="1">
+      <c r="A55" t="s" s="9">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="D55" s="11">
         <v>0.33</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" ht="22.35" customHeight="1">
-      <c r="A53" t="s" s="8">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s" s="9">
-        <v>112</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" ht="22.35" customHeight="1">
-      <c r="A54" t="s" s="8">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s" s="9">
-        <v>114</v>
-      </c>
-      <c r="D54" s="10">
+      <c r="E55" s="12"/>
+      <c r="F55" s="13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" ht="22.35" customHeight="1">
+      <c r="A56" t="s" s="9">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" ht="22.35" customHeight="1">
+      <c r="A57" t="s" s="9">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="D57" s="11">
         <v>0.63</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" ht="22.35" customHeight="1">
-      <c r="A55" t="s" s="8">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s" s="9">
-        <v>116</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" ht="22.35" customHeight="1">
-      <c r="A56" t="s" s="8">
-        <v>117</v>
-      </c>
-      <c r="B56" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C56" t="s" s="9">
-        <v>118</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" ht="22.35" customHeight="1">
-      <c r="A57" t="s" s="8">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s" s="9">
-        <v>120</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="E57" s="12"/>
+      <c r="F57" s="13">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" ht="22.35" customHeight="1">
+      <c r="A58" t="s" s="9">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="D58" s="11">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" ht="22.35" customHeight="1">
+      <c r="A59" t="s" s="9">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="D59" s="11">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" ht="22.35" customHeight="1">
+      <c r="A60" t="s" s="9">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="D60" s="11">
         <v>0.7</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" ht="22.35" customHeight="1">
-      <c r="A58" t="s" s="8">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s" s="9">
-        <v>122</v>
-      </c>
-      <c r="D58" s="10">
+      <c r="E60" s="12"/>
+      <c r="F60" s="13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" ht="22.35" customHeight="1">
+      <c r="A61" t="s" s="9">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="D61" s="11">
         <v>0.67</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" ht="22.35" customHeight="1">
-      <c r="A59" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="B59" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="D59" s="10">
+      <c r="E61" s="12"/>
+      <c r="F61" s="13">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" ht="22.35" customHeight="1">
+      <c r="A62" t="s" s="9">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="D62" s="11">
         <v>0.63</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" ht="22.35" customHeight="1">
-      <c r="A60" t="s" s="8">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s" s="9">
-        <v>126</v>
-      </c>
-      <c r="D60" s="10">
+      <c r="E62" s="12"/>
+      <c r="F62" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" ht="22.35" customHeight="1">
+      <c r="A63" t="s" s="9">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="D63" s="11">
         <v>0.33</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" ht="22.35" customHeight="1">
-      <c r="A61" t="s" s="8">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C61" t="s" s="9">
-        <v>128</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="E63" s="12"/>
+      <c r="F63" s="13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" ht="22.35" customHeight="1">
+      <c r="A64" t="s" s="9">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="D64" s="11">
         <v>0.33</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" ht="22.35" customHeight="1">
-      <c r="A62" t="s" s="8">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s" s="9">
+      <c r="E64" s="12"/>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" ht="22.35" customHeight="1">
+      <c r="A65" t="s" s="9">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="D65" s="11">
+        <v>0</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" ht="22.35" customHeight="1">
+      <c r="A66" t="s" s="9">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s" s="10">
+        <v>138</v>
+      </c>
+      <c r="D66" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" ht="22.35" customHeight="1">
+      <c r="A67" t="s" s="9">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s" s="10">
+        <v>140</v>
+      </c>
+      <c r="D67" s="11">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" ht="22.35" customHeight="1">
+      <c r="A68" t="s" s="9">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s" s="10">
         <v>130</v>
       </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" ht="22.35" customHeight="1">
-      <c r="A63" t="s" s="8">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s" s="9">
-        <v>132</v>
-      </c>
-      <c r="D63" s="10">
+      <c r="D68" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" ht="22.35" customHeight="1">
+      <c r="A69" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="D69" s="11">
+        <v>0</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" ht="22.35" customHeight="1">
+      <c r="A70" t="s" s="9">
+        <v>144</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="D70" s="11">
         <v>0.7</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" ht="22.35" customHeight="1">
-      <c r="A64" t="s" s="8">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s" s="9">
-        <v>134</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" ht="22.35" customHeight="1">
-      <c r="A65" t="s" s="8">
-        <v>135</v>
-      </c>
-      <c r="B65" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s" s="9">
-        <v>124</v>
-      </c>
-      <c r="D65" s="10">
+      <c r="E70" s="12"/>
+      <c r="F70" s="13">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" ht="22.35" customHeight="1">
+      <c r="A71" t="s" s="9">
+        <v>146</v>
+      </c>
+      <c r="B71" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" ht="22.35" customHeight="1">
+      <c r="A72" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="B72" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="D72" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" ht="22.35" customHeight="1">
+      <c r="A73" t="s" s="9">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="D73" s="11">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" ht="22.35" customHeight="1">
+      <c r="A74" t="s" s="9">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="D74" s="11">
+        <v>0</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" ht="22.35" customHeight="1">
+      <c r="A75" t="s" s="9">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="D75" s="11">
+        <v>0</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" ht="22.35" customHeight="1">
+      <c r="A76" t="s" s="9">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="D76" s="11">
+        <v>0</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" ht="22.35" customHeight="1">
+      <c r="A77" t="s" s="9">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="D77" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="13">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" ht="22.35" customHeight="1">
+      <c r="A78" t="s" s="9">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="D78" s="11">
         <v>0.63</v>
       </c>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" ht="22.35" customHeight="1">
-      <c r="A66" t="s" s="8">
-        <v>136</v>
-      </c>
-      <c r="B66" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s" s="9">
-        <v>137</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" ht="22.35" customHeight="1">
-      <c r="A67" t="s" s="8">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s" s="9">
-        <v>139</v>
-      </c>
-      <c r="D67" s="10">
+      <c r="E78" s="12"/>
+      <c r="F78" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" ht="22.35" customHeight="1">
+      <c r="A79" t="s" s="9">
+        <v>162</v>
+      </c>
+      <c r="B79" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="D79" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" ht="22.35" customHeight="1">
+      <c r="A80" t="s" s="9">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="D80" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" ht="22.35" customHeight="1">
+      <c r="A81" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="D81" s="11">
+        <v>0</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" ht="22.35" customHeight="1">
+      <c r="A82" t="s" s="9">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="D82" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" ht="22.35" customHeight="1">
+      <c r="A83" t="s" s="9">
+        <v>170</v>
+      </c>
+      <c r="B83" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s" s="10">
+        <v>171</v>
+      </c>
+      <c r="D83" s="11">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="13">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" ht="22.35" customHeight="1">
+      <c r="A84" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="B84" t="s" s="9">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="D84" s="11">
+        <v>0</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="13">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" ht="22.35" customHeight="1">
+      <c r="A85" t="s" s="9">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="D85" s="11">
+        <v>0.67</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" ht="22.35" customHeight="1">
+      <c r="A86" t="s" s="9">
+        <v>176</v>
+      </c>
+      <c r="B86" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s" s="10">
+        <v>177</v>
+      </c>
+      <c r="D86" s="11">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" ht="22.35" customHeight="1">
+      <c r="A87" t="s" s="9">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s" s="10">
+        <v>179</v>
+      </c>
+      <c r="D87" s="11">
         <v>0.7</v>
       </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" ht="22.35" customHeight="1">
-      <c r="A68" t="s" s="8">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s" s="9">
-        <v>141</v>
-      </c>
-      <c r="D68" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" ht="22.35" customHeight="1">
-      <c r="A69" t="s" s="8">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s" s="9">
-        <v>143</v>
-      </c>
-      <c r="D69" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" ht="22.35" customHeight="1">
-      <c r="A70" t="s" s="8">
-        <v>144</v>
-      </c>
-      <c r="B70" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>145</v>
-      </c>
-      <c r="D70" s="10">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" ht="22.35" customHeight="1">
-      <c r="A71" t="s" s="8">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s" s="9">
-        <v>147</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" ht="22.35" customHeight="1">
-      <c r="A72" t="s" s="8">
-        <v>148</v>
-      </c>
-      <c r="B72" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s" s="9">
-        <v>149</v>
-      </c>
-      <c r="D72" s="10">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" ht="22.35" customHeight="1">
-      <c r="A73" t="s" s="8">
-        <v>150</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>151</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" ht="22.35" customHeight="1">
-      <c r="A74" t="s" s="8">
-        <v>152</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="D74" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" ht="22.35" customHeight="1">
-      <c r="A75" t="s" s="8">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s" s="9">
-        <v>155</v>
-      </c>
-      <c r="D75" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" ht="22.35" customHeight="1">
-      <c r="A76" t="s" s="8">
-        <v>156</v>
-      </c>
-      <c r="B76" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s" s="9">
-        <v>157</v>
-      </c>
-      <c r="D76" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" ht="22.35" customHeight="1">
-      <c r="A77" t="s" s="8">
-        <v>158</v>
-      </c>
-      <c r="B77" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s" s="9">
-        <v>159</v>
-      </c>
-      <c r="D77" s="10">
-        <v>0</v>
-      </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" ht="22.35" customHeight="1">
-      <c r="A78" t="s" s="8">
-        <v>160</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s" s="9">
-        <v>161</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" ht="22.35" customHeight="1">
-      <c r="A79" t="s" s="8">
-        <v>162</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s" s="9">
-        <v>163</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" ht="22.35" customHeight="1">
-      <c r="A80" t="s" s="8">
-        <v>164</v>
-      </c>
-      <c r="B80" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s" s="9">
-        <v>165</v>
-      </c>
-      <c r="D80" s="10">
-        <v>0</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" ht="22.35" customHeight="1">
-      <c r="A81" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="B81" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s" s="9">
-        <v>167</v>
-      </c>
-      <c r="D81" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" ht="22.35" customHeight="1">
-      <c r="A82" t="s" s="8">
-        <v>168</v>
-      </c>
-      <c r="B82" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>169</v>
-      </c>
-      <c r="D82" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" ht="22.35" customHeight="1">
-      <c r="A83" t="s" s="8">
-        <v>170</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="C83" t="s" s="9">
-        <v>171</v>
-      </c>
-      <c r="D83" s="10">
-        <v>0</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-    </row>
-    <row r="84" ht="22.35" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="13">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" ht="22.35" customHeight="1">
+      <c r="A88" t="s" s="9">
+        <v>180</v>
+      </c>
+      <c r="B88" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s" s="10">
+        <v>181</v>
+      </c>
+      <c r="D88" s="11">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="13">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>Surname</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>H190141T</t>
-  </si>
-  <si>
-    <t>Hamadziripi-Sober</t>
-  </si>
-  <si>
-    <t>H190632N</t>
   </si>
   <si>
     <t>Jonga</t>
@@ -1787,7 +1781,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -2006,7 +2000,7 @@
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2311,22 +2305,22 @@
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" ht="36.35" customHeight="1">
+    <row r="26" ht="22.35" customHeight="1">
       <c r="A26" t="s" s="9">
         <v>57</v>
       </c>
       <c r="B26" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s" s="10">
         <v>58</v>
       </c>
       <c r="D26" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="13">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
@@ -2336,13 +2330,13 @@
         <v>59</v>
       </c>
       <c r="B27" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s" s="10">
         <v>60</v>
       </c>
       <c r="D27" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="13">
@@ -2356,17 +2350,17 @@
         <v>61</v>
       </c>
       <c r="B28" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s" s="10">
         <v>62</v>
       </c>
       <c r="D28" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="13">
-        <v>0.7857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2382,11 +2376,11 @@
         <v>64</v>
       </c>
       <c r="D29" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="13">
-        <v>0.3571428571428572</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2402,11 +2396,11 @@
         <v>66</v>
       </c>
       <c r="D30" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="13">
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2422,11 +2416,11 @@
         <v>68</v>
       </c>
       <c r="D31" s="11">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="13">
-        <v>0.7857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2442,7 +2436,7 @@
         <v>70</v>
       </c>
       <c r="D32" s="11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="13">
@@ -2456,7 +2450,7 @@
         <v>71</v>
       </c>
       <c r="B33" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s" s="10">
         <v>72</v>
@@ -2466,7 +2460,7 @@
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="13">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2476,7 +2470,7 @@
         <v>73</v>
       </c>
       <c r="B34" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s" s="10">
         <v>74</v>
@@ -2486,7 +2480,7 @@
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="13">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2502,11 +2496,11 @@
         <v>76</v>
       </c>
       <c r="D35" s="11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="13">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2516,17 +2510,17 @@
         <v>77</v>
       </c>
       <c r="B36" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s" s="10">
         <v>78</v>
       </c>
       <c r="D36" s="11">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="13">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2542,7 +2536,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="11">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="13">
@@ -2556,17 +2550,17 @@
         <v>81</v>
       </c>
       <c r="B38" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s" s="10">
         <v>82</v>
       </c>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="13">
-        <v>0.6428571428571429</v>
+        <v>0</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2576,13 +2570,13 @@
         <v>83</v>
       </c>
       <c r="B39" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s" s="10">
         <v>84</v>
       </c>
       <c r="D39" s="11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="13">
@@ -2606,7 +2600,7 @@
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -2626,7 +2620,7 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="13">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -2646,7 +2640,7 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="13">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2656,17 +2650,17 @@
         <v>91</v>
       </c>
       <c r="B43" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s" s="10">
         <v>92</v>
       </c>
       <c r="D43" s="11">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="13">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -2676,13 +2670,13 @@
         <v>93</v>
       </c>
       <c r="B44" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s" s="10">
         <v>94</v>
       </c>
       <c r="D44" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="13">
@@ -2696,17 +2690,17 @@
         <v>95</v>
       </c>
       <c r="B45" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s" s="10">
         <v>96</v>
       </c>
       <c r="D45" s="11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2726,7 +2720,7 @@
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="13">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -2746,7 +2740,7 @@
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="13">
-        <v>0.7142857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -2762,11 +2756,11 @@
         <v>102</v>
       </c>
       <c r="D48" s="11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="13">
-        <v>0.6428571428571429</v>
+        <v>0</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -2776,17 +2770,17 @@
         <v>103</v>
       </c>
       <c r="B49" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s" s="10">
         <v>104</v>
       </c>
       <c r="D49" s="11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="13">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -2806,7 +2800,7 @@
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="13">
-        <v>0.4285714285714285</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -2816,17 +2810,17 @@
         <v>107</v>
       </c>
       <c r="B51" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s" s="10">
         <v>108</v>
       </c>
       <c r="D51" s="11">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="13">
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -2836,17 +2830,17 @@
         <v>109</v>
       </c>
       <c r="B52" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s" s="10">
         <v>110</v>
       </c>
       <c r="D52" s="11">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="13">
-        <v>0.7142857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -2866,7 +2860,7 @@
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="13">
-        <v>0.6428571428571429</v>
+        <v>0</v>
       </c>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -2882,11 +2876,11 @@
         <v>114</v>
       </c>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="13">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -2902,11 +2896,11 @@
         <v>116</v>
       </c>
       <c r="D55" s="11">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="13">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -2916,17 +2910,17 @@
         <v>117</v>
       </c>
       <c r="B56" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s" s="10">
         <v>118</v>
       </c>
       <c r="D56" s="11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="13">
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -2936,17 +2930,17 @@
         <v>119</v>
       </c>
       <c r="B57" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s" s="10">
         <v>120</v>
       </c>
       <c r="D57" s="11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="13">
-        <v>0.7857142857142857</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -2976,17 +2970,17 @@
         <v>123</v>
       </c>
       <c r="B59" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s" s="10">
         <v>124</v>
       </c>
       <c r="D59" s="11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="13">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3002,11 +2996,11 @@
         <v>126</v>
       </c>
       <c r="D60" s="11">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="13">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -3022,11 +3016,11 @@
         <v>128</v>
       </c>
       <c r="D61" s="11">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="13">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -3036,17 +3030,17 @@
         <v>129</v>
       </c>
       <c r="B62" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s" s="10">
         <v>130</v>
       </c>
       <c r="D62" s="11">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="13">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -3066,7 +3060,7 @@
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="13">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -3082,11 +3076,11 @@
         <v>134</v>
       </c>
       <c r="D64" s="11">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="13">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3096,17 +3090,17 @@
         <v>135</v>
       </c>
       <c r="B65" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s" s="10">
         <v>136</v>
       </c>
       <c r="D65" s="11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="13">
-        <v>0.8571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -3116,17 +3110,17 @@
         <v>137</v>
       </c>
       <c r="B66" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s" s="10">
         <v>138</v>
       </c>
       <c r="D66" s="11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="13">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -3136,33 +3130,33 @@
         <v>139</v>
       </c>
       <c r="B67" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s" s="10">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D67" s="11">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="13">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
     </row>
     <row r="68" ht="22.35" customHeight="1">
       <c r="A68" t="s" s="9">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s" s="10">
         <v>141</v>
       </c>
-      <c r="B68" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s" s="10">
-        <v>130</v>
-      </c>
       <c r="D68" s="11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="13">
@@ -3182,11 +3176,11 @@
         <v>143</v>
       </c>
       <c r="D69" s="11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="13">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -3206,7 +3200,7 @@
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="13">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -3216,7 +3210,7 @@
         <v>146</v>
       </c>
       <c r="B71" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s" s="10">
         <v>147</v>
@@ -3226,7 +3220,7 @@
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="13">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -3242,7 +3236,7 @@
         <v>149</v>
       </c>
       <c r="D72" s="11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="13">
@@ -3276,7 +3270,7 @@
         <v>152</v>
       </c>
       <c r="B74" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s" s="10">
         <v>153</v>
@@ -3286,7 +3280,7 @@
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="13">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -3296,7 +3290,7 @@
         <v>154</v>
       </c>
       <c r="B75" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s" s="10">
         <v>155</v>
@@ -3306,7 +3300,7 @@
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="13">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -3316,17 +3310,17 @@
         <v>156</v>
       </c>
       <c r="B76" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s" s="10">
         <v>157</v>
       </c>
       <c r="D76" s="11">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="13">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -3342,11 +3336,11 @@
         <v>159</v>
       </c>
       <c r="D77" s="11">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="13">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -3362,7 +3356,7 @@
         <v>161</v>
       </c>
       <c r="D78" s="11">
-        <v>0.63</v>
+        <v>0.8</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="13">
@@ -3382,7 +3376,7 @@
         <v>163</v>
       </c>
       <c r="D79" s="11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="13">
@@ -3396,17 +3390,17 @@
         <v>164</v>
       </c>
       <c r="B80" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s" s="10">
         <v>165</v>
       </c>
       <c r="D80" s="11">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="13">
-        <v>0.7142857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -3416,17 +3410,17 @@
         <v>166</v>
       </c>
       <c r="B81" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s" s="10">
         <v>167</v>
       </c>
       <c r="D81" s="11">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="13">
-        <v>0.6428571428571429</v>
+        <v>0</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -3436,13 +3430,13 @@
         <v>168</v>
       </c>
       <c r="B82" t="s" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s" s="10">
         <v>169</v>
       </c>
       <c r="D82" s="11">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="13">
@@ -3466,7 +3460,7 @@
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="13">
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -3476,17 +3470,17 @@
         <v>172</v>
       </c>
       <c r="B84" t="s" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s" s="10">
         <v>173</v>
       </c>
       <c r="D84" s="11">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="13">
-        <v>0.6428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -3502,11 +3496,11 @@
         <v>175</v>
       </c>
       <c r="D85" s="11">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="13">
-        <v>0.5</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -3522,11 +3516,11 @@
         <v>177</v>
       </c>
       <c r="D86" s="11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="13">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -3542,34 +3536,14 @@
         <v>179</v>
       </c>
       <c r="D87" s="11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="13">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
-    </row>
-    <row r="88" ht="22.35" customHeight="1">
-      <c r="A88" t="s" s="9">
-        <v>180</v>
-      </c>
-      <c r="B88" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C88" t="s" s="10">
-        <v>181</v>
-      </c>
-      <c r="D88" s="11">
-        <v>0</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -3420,7 +3420,7 @@
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="13">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>Surname</t>
   </si>
@@ -32,39 +31,33 @@
     <t>Quiz_1</t>
   </si>
   <si>
-    <t>Test_2</t>
+    <t>Quiz_2</t>
   </si>
   <si>
     <t>CW</t>
   </si>
   <si>
-    <t>Basarekudya</t>
+    <t xml:space="preserve">Bunya </t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H190542R </t>
+  </si>
+  <si>
+    <t>Chaitezvi</t>
+  </si>
+  <si>
+    <t>H190592P</t>
+  </si>
+  <si>
+    <t>Chandiringa</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>H190825N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bunya </t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H190542R </t>
-  </si>
-  <si>
-    <t>Chaitezvi</t>
-  </si>
-  <si>
-    <t>H190592P</t>
-  </si>
-  <si>
-    <t>Chandiringa</t>
-  </si>
-  <si>
     <t>H180187T</t>
   </si>
   <si>
@@ -98,6 +91,9 @@
     <t>H190654W</t>
   </si>
   <si>
+    <t>H180718G</t>
+  </si>
+  <si>
     <t>Chigwededza</t>
   </si>
   <si>
@@ -293,12 +289,6 @@
     <t>H190473R</t>
   </si>
   <si>
-    <t xml:space="preserve">Matanga </t>
-  </si>
-  <si>
-    <t>H180617H</t>
-  </si>
-  <si>
     <t>Matiki</t>
   </si>
   <si>
@@ -515,7 +505,7 @@
     <t>Vunganai</t>
   </si>
   <si>
-    <t>H190094z</t>
+    <t>H190094Z</t>
   </si>
   <si>
     <t>Wachekwa</t>
@@ -558,8 +548,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="# ###/###"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -657,7 +648,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -685,6 +676,9 @@
     <xf numFmtId="2" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -698,6 +692,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1781,7 +1778,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1796,7 +1793,7 @@
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.72656" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1">
@@ -1840,1710 +1837,1860 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7"/>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.454545454545455</v>
+      </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="9">
+      <c r="A3" t="s" s="10">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" ht="22.35" customHeight="1">
+      <c r="A4" t="s" s="10">
         <v>13</v>
       </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="B4" t="s" s="10">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="A5" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="10">
+      <c r="B5" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="A6" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="B6" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="10">
+      <c r="B6" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+      <c r="A7" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="B7" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="10">
+      <c r="B7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
+      <c r="D7" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" ht="22.35" customHeight="1">
+      <c r="A8" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14">
         <v>0.5</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" ht="22.35" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12">
         <v>0.7</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" ht="22.35" customHeight="1">
+      <c r="A10" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
+      <c r="B10" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" ht="22.35" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" ht="22.35" customHeight="1">
+      <c r="A12" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>30</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" ht="22.35" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" ht="22.35" customHeight="1">
+      <c r="A14" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" ht="22.35" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" ht="22.35" customHeight="1">
+      <c r="A16" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" ht="22.35" customHeight="1">
+      <c r="A17" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" ht="22.35" customHeight="1">
+      <c r="A18" t="s" s="10">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" ht="22.35" customHeight="1">
+      <c r="A19" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" ht="22.35" customHeight="1">
+      <c r="A20" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14">
         <v>0.5</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="G20" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" ht="22.35" customHeight="1">
+      <c r="A21" t="s" s="10">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" t="s" s="10">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" ht="22.35" customHeight="1">
+      <c r="A23" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" ht="22.35" customHeight="1">
+      <c r="A24" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" ht="22.35" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" ht="22.35" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="G26" s="15">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" ht="22.35" customHeight="1">
+      <c r="A27" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" ht="22.35" customHeight="1">
+      <c r="A28" t="s" s="10">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" ht="22.35" customHeight="1">
+      <c r="A29" t="s" s="10">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" ht="22.35" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" ht="22.35" customHeight="1">
+      <c r="A31" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" ht="22.35" customHeight="1">
+      <c r="A33" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" ht="22.35" customHeight="1">
+      <c r="A34" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G34" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" ht="22.35" customHeight="1">
+      <c r="A35" t="s" s="10">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="10">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.9090909090909089</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" ht="22.35" customHeight="1">
+      <c r="A37" t="s" s="10">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s" s="11">
+        <v>79</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" ht="22.35" customHeight="1">
+      <c r="A38" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D38" s="12">
         <v>0.7</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="E38" s="13"/>
+      <c r="F38" s="14">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="10">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" ht="22.35" customHeight="1">
+      <c r="A40" t="s" s="10">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" ht="22.35" customHeight="1">
+      <c r="A41" t="s" s="10">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" ht="22.35" customHeight="1">
+      <c r="A42" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G42" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" ht="22.35" customHeight="1">
+      <c r="A43" t="s" s="10">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14">
+        <v>0</v>
+      </c>
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" ht="22.35" customHeight="1">
+      <c r="A44" t="s" s="10">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" ht="22.35" customHeight="1">
+      <c r="A45" t="s" s="10">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G45" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" ht="22.35" customHeight="1">
+      <c r="A46" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G46" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" ht="22.35" customHeight="1">
+      <c r="A47" t="s" s="10">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s" s="11">
+        <v>99</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" ht="22.35" customHeight="1">
+      <c r="A48" t="s" s="10">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="F48" s="14">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" ht="22.35" customHeight="1">
+      <c r="A49" t="s" s="10">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" ht="22.35" customHeight="1">
+      <c r="A50" t="s" s="10">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" ht="22.35" customHeight="1">
+      <c r="A51" t="s" s="10">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" ht="22.35" customHeight="1">
+      <c r="A52" t="s" s="10">
+        <v>108</v>
+      </c>
+      <c r="B52" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s" s="11">
+        <v>109</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="14">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" ht="22.35" customHeight="1">
+      <c r="A53" t="s" s="10">
+        <v>110</v>
+      </c>
+      <c r="B53" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" ht="22.35" customHeight="1">
+      <c r="A54" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" ht="22.35" customHeight="1">
+      <c r="A55" t="s" s="10">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s" s="11">
+        <v>115</v>
+      </c>
+      <c r="D55" s="12">
         <v>0.63</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="E55" s="13"/>
+      <c r="F55" s="14">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0.454545454545455</v>
+      </c>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" ht="22.35" customHeight="1">
+      <c r="A56" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" ht="22.35" customHeight="1">
+      <c r="A57" t="s" s="10">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s" s="11">
+        <v>119</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" ht="22.35" customHeight="1">
+      <c r="A58" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s" s="11">
+        <v>121</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="14">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" ht="22.35" customHeight="1">
+      <c r="A59" t="s" s="10">
+        <v>122</v>
+      </c>
+      <c r="B59" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" ht="22.35" customHeight="1">
+      <c r="A60" t="s" s="10">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" ht="22.35" customHeight="1">
+      <c r="A61" t="s" s="10">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s" s="11">
+        <v>127</v>
+      </c>
+      <c r="D61" s="12">
         <v>0.33</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="E61" s="13"/>
+      <c r="F61" s="14">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" ht="22.35" customHeight="1">
+      <c r="A62" t="s" s="10">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="D62" s="12">
         <v>0.33</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="E62" s="13"/>
+      <c r="F62" s="14">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" ht="22.35" customHeight="1">
+      <c r="A63" t="s" s="10">
+        <v>130</v>
+      </c>
+      <c r="B63" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s" s="11">
+        <v>131</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="G63" s="15">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" ht="22.35" customHeight="1">
+      <c r="A64" t="s" s="10">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s" s="11">
+        <v>133</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" ht="22.35" customHeight="1">
+      <c r="A65" t="s" s="10">
+        <v>134</v>
+      </c>
+      <c r="B65" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s" s="11">
+        <v>135</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0</v>
+      </c>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" ht="22.35" customHeight="1">
+      <c r="A66" t="s" s="10">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0.818181818181818</v>
+      </c>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" ht="22.35" customHeight="1">
+      <c r="A67" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s" s="11">
+        <v>138</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G67" s="15">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" ht="22.35" customHeight="1">
+      <c r="A68" t="s" s="10">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s" s="11">
+        <v>140</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="G68" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" ht="22.35" customHeight="1">
+      <c r="A69" t="s" s="10">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s" s="11">
+        <v>142</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" ht="22.35" customHeight="1">
+      <c r="A70" t="s" s="10">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C70" t="s" s="11">
+        <v>144</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="14">
+        <v>0</v>
+      </c>
+      <c r="G70" s="15">
+        <v>0.181818181818182</v>
+      </c>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" ht="22.35" customHeight="1">
+      <c r="A71" t="s" s="10">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s" s="11">
+        <v>146</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14">
+        <v>0</v>
+      </c>
+      <c r="G71" s="15">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13"/>
+    </row>
+    <row r="72" ht="22.35" customHeight="1">
+      <c r="A72" t="s" s="10">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C72" t="s" s="11">
+        <v>148</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="14">
+        <v>0</v>
+      </c>
+      <c r="G72" s="15">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" ht="22.35" customHeight="1">
+      <c r="A73" t="s" s="10">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s" s="11">
+        <v>150</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="14">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" ht="22.35" customHeight="1">
+      <c r="A74" t="s" s="10">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s" s="11">
+        <v>152</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" ht="22.35" customHeight="1">
+      <c r="A75" t="s" s="10">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s" s="11">
+        <v>154</v>
+      </c>
+      <c r="D75" s="12">
         <v>0.8</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="E75" s="13"/>
+      <c r="F75" s="14">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" ht="22.35" customHeight="1">
+      <c r="A76" t="s" s="10">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s" s="11">
+        <v>156</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" ht="22.35" customHeight="1">
+      <c r="A77" t="s" s="10">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s" s="11">
+        <v>158</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="H77" s="13"/>
+    </row>
+    <row r="78" ht="22.35" customHeight="1">
+      <c r="A78" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s" s="11">
+        <v>160</v>
+      </c>
+      <c r="D78" s="12">
         <v>0.67</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="E78" s="13"/>
+      <c r="F78" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G78" s="15">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="H78" s="13"/>
+    </row>
+    <row r="79" ht="22.35" customHeight="1">
+      <c r="A79" t="s" s="10">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s" s="11">
+        <v>162</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0</v>
+      </c>
+      <c r="E79" s="13"/>
+      <c r="F79" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H79" s="13"/>
+    </row>
+    <row r="80" ht="22.35" customHeight="1">
+      <c r="A80" t="s" s="10">
+        <v>163</v>
+      </c>
+      <c r="B80" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s" s="11">
+        <v>164</v>
+      </c>
+      <c r="D80" s="12">
         <v>0.67</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="E80" s="13"/>
+      <c r="F80" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="13"/>
+    </row>
+    <row r="81" ht="22.35" customHeight="1">
+      <c r="A81" t="s" s="10">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s" s="11">
+        <v>166</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14">
+        <v>0</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="82" ht="22.35" customHeight="1">
+      <c r="A82" t="s" s="10">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s" s="11">
+        <v>168</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="14">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="G82" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" ht="22.35" customHeight="1">
+      <c r="A83" t="s" s="10">
+        <v>169</v>
+      </c>
+      <c r="B83" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s" s="11">
+        <v>170</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H83" s="13"/>
+    </row>
+    <row r="84" ht="22.35" customHeight="1">
+      <c r="A84" t="s" s="10">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s" s="11">
+        <v>172</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G84" s="15">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="H84" s="13"/>
+    </row>
+    <row r="85" ht="22.35" customHeight="1">
+      <c r="A85" t="s" s="10">
+        <v>173</v>
+      </c>
+      <c r="B85" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s" s="11">
+        <v>174</v>
+      </c>
+      <c r="D85" s="12">
         <v>0.7</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s" s="10">
-        <v>56</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s" s="10">
-        <v>58</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s" s="10">
-        <v>60</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s" s="10">
-        <v>64</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s" s="10">
-        <v>66</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s" s="10">
-        <v>68</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s" s="10">
-        <v>70</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C34" t="s" s="10">
-        <v>74</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="9">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="9">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s" s="10">
-        <v>80</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C38" t="s" s="10">
-        <v>82</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="9">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13">
-        <v>0</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="9">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s" s="10">
-        <v>88</v>
-      </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s" s="10">
-        <v>90</v>
-      </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="D43" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C44" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="D45" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" ht="22.35" customHeight="1">
-      <c r="A46" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C46" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="D46" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" ht="22.35" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C47" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" ht="22.35" customHeight="1">
-      <c r="A48" t="s" s="9">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C48" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="13">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" ht="22.35" customHeight="1">
-      <c r="A49" t="s" s="9">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C49" t="s" s="10">
-        <v>104</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="13">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" ht="22.35" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" ht="22.35" customHeight="1">
-      <c r="A51" t="s" s="9">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C51" t="s" s="10">
-        <v>108</v>
-      </c>
-      <c r="D51" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" ht="22.35" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C52" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" ht="22.35" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" ht="22.35" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C54" t="s" s="10">
-        <v>114</v>
-      </c>
-      <c r="D54" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" ht="22.35" customHeight="1">
-      <c r="A55" t="s" s="9">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s" s="10">
-        <v>116</v>
-      </c>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" ht="22.35" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="B56" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" ht="22.35" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0</v>
-      </c>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" ht="22.35" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" ht="22.35" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>123</v>
-      </c>
-      <c r="B59" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s" s="10">
-        <v>124</v>
-      </c>
-      <c r="D59" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" ht="22.35" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13">
-        <v>0</v>
-      </c>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" ht="22.35" customHeight="1">
-      <c r="A61" t="s" s="9">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="D61" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" ht="22.35" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="D62" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" ht="22.35" customHeight="1">
-      <c r="A63" t="s" s="9">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C63" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="D63" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13">
-        <v>0</v>
-      </c>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" ht="22.35" customHeight="1">
-      <c r="A64" t="s" s="9">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C64" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="D64" s="11">
-        <v>0</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="13">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" ht="22.35" customHeight="1">
-      <c r="A65" t="s" s="9">
-        <v>135</v>
-      </c>
-      <c r="B65" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="D65" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" ht="22.35" customHeight="1">
-      <c r="A66" t="s" s="9">
-        <v>137</v>
-      </c>
-      <c r="B66" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C66" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="D66" s="11">
-        <v>0</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="13">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" ht="22.35" customHeight="1">
-      <c r="A67" t="s" s="9">
-        <v>139</v>
-      </c>
-      <c r="B67" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s" s="10">
-        <v>128</v>
-      </c>
-      <c r="D67" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" ht="22.35" customHeight="1">
-      <c r="A68" t="s" s="9">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s" s="10">
-        <v>141</v>
-      </c>
-      <c r="D68" s="11">
-        <v>0</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" ht="22.35" customHeight="1">
-      <c r="A69" t="s" s="9">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s" s="10">
-        <v>143</v>
-      </c>
-      <c r="D69" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" ht="22.35" customHeight="1">
-      <c r="A70" t="s" s="9">
-        <v>144</v>
-      </c>
-      <c r="B70" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s" s="10">
-        <v>145</v>
-      </c>
-      <c r="D70" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="71" ht="22.35" customHeight="1">
-      <c r="A71" t="s" s="9">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s" s="10">
-        <v>147</v>
-      </c>
-      <c r="D71" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="13">
-        <v>0</v>
-      </c>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" ht="22.35" customHeight="1">
-      <c r="A72" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="B72" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s" s="10">
-        <v>149</v>
-      </c>
-      <c r="D72" s="11">
-        <v>0</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13">
-        <v>0</v>
-      </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" ht="22.35" customHeight="1">
-      <c r="A73" t="s" s="9">
-        <v>150</v>
-      </c>
-      <c r="B73" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s" s="10">
-        <v>151</v>
-      </c>
-      <c r="D73" s="11">
-        <v>0</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="13">
-        <v>0</v>
-      </c>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" ht="22.35" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>152</v>
-      </c>
-      <c r="B74" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s" s="10">
-        <v>153</v>
-      </c>
-      <c r="D74" s="11">
-        <v>0</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" ht="22.35" customHeight="1">
-      <c r="A75" t="s" s="9">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s" s="10">
-        <v>155</v>
-      </c>
-      <c r="D75" s="11">
-        <v>0</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" ht="22.35" customHeight="1">
-      <c r="A76" t="s" s="9">
-        <v>156</v>
-      </c>
-      <c r="B76" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s" s="10">
-        <v>157</v>
-      </c>
-      <c r="D76" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" ht="22.35" customHeight="1">
-      <c r="A77" t="s" s="9">
-        <v>158</v>
-      </c>
-      <c r="B77" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s" s="10">
-        <v>159</v>
-      </c>
-      <c r="D77" s="11">
-        <v>0.63</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" ht="22.35" customHeight="1">
-      <c r="A78" t="s" s="9">
-        <v>160</v>
-      </c>
-      <c r="B78" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C78" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="D78" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" ht="22.35" customHeight="1">
-      <c r="A79" t="s" s="9">
-        <v>162</v>
-      </c>
-      <c r="B79" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C79" t="s" s="10">
-        <v>163</v>
-      </c>
-      <c r="D79" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" ht="22.35" customHeight="1">
-      <c r="A80" t="s" s="9">
-        <v>164</v>
-      </c>
-      <c r="B80" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s" s="10">
-        <v>165</v>
-      </c>
-      <c r="D80" s="11">
-        <v>0</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" ht="22.35" customHeight="1">
-      <c r="A81" t="s" s="9">
-        <v>166</v>
-      </c>
-      <c r="B81" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s" s="10">
-        <v>167</v>
-      </c>
-      <c r="D81" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" ht="22.35" customHeight="1">
-      <c r="A82" t="s" s="9">
-        <v>168</v>
-      </c>
-      <c r="B82" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s" s="10">
-        <v>169</v>
-      </c>
-      <c r="D82" s="11">
-        <v>0</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13">
-        <v>0</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" ht="22.35" customHeight="1">
-      <c r="A83" t="s" s="9">
-        <v>170</v>
-      </c>
-      <c r="B83" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="C83" t="s" s="10">
-        <v>171</v>
-      </c>
-      <c r="D83" s="11">
-        <v>0</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" ht="22.35" customHeight="1">
-      <c r="A84" t="s" s="9">
-        <v>172</v>
-      </c>
-      <c r="B84" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C84" t="s" s="10">
-        <v>173</v>
-      </c>
-      <c r="D84" s="11">
-        <v>0.67</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" ht="22.35" customHeight="1">
-      <c r="A85" t="s" s="9">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C85" t="s" s="10">
+      <c r="E85" s="13"/>
+      <c r="F85" s="14">
+        <v>0</v>
+      </c>
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13"/>
+    </row>
+    <row r="86" ht="22.35" customHeight="1">
+      <c r="A86" t="s" s="10">
         <v>175</v>
       </c>
-      <c r="D85" s="11">
-        <v>0</v>
-      </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-    </row>
-    <row r="86" ht="22.35" customHeight="1">
-      <c r="A86" t="s" s="9">
+      <c r="B86" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s" s="11">
         <v>176</v>
       </c>
-      <c r="B86" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C86" t="s" s="10">
-        <v>177</v>
-      </c>
-      <c r="D86" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="13">
-        <v>0</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" ht="22.35" customHeight="1">
-      <c r="A87" t="s" s="9">
-        <v>178</v>
-      </c>
-      <c r="B87" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="D87" s="11">
-        <v>0</v>
-      </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="13">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="D86" s="12">
+        <v>0</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14">
+        <v>0.714285714285714</v>
+      </c>
+      <c r="G86" s="15">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="H86" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>Surname</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Quiz_2</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>CW</t>
@@ -1778,7 +1781,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1792,8 +1795,8 @@
     <col min="4" max="4" width="11.2891" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.72656" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1">
@@ -1821,16 +1824,19 @@
       <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="22.55" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
@@ -1842,17 +1848,18 @@
       <c r="G2" s="9">
         <v>0.454545454545455</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -1864,17 +1871,18 @@
       <c r="G3" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -1886,17 +1894,18 @@
       <c r="G4" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -1908,17 +1917,18 @@
       <c r="G5" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="12">
         <v>0</v>
@@ -1930,17 +1940,18 @@
       <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12">
         <v>0.7</v>
@@ -1952,17 +1963,18 @@
       <c r="G7" s="15">
         <v>0.181818181818182</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12">
         <v>0</v>
@@ -1974,17 +1986,18 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12">
         <v>0.7</v>
@@ -1996,17 +2009,20 @@
       <c r="G9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="15">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="12">
         <v>0</v>
@@ -2018,17 +2034,18 @@
       <c r="G10" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -2040,17 +2057,18 @@
       <c r="G11" s="15">
         <v>0.818181818181818</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="12">
         <v>0</v>
@@ -2062,17 +2080,18 @@
       <c r="G12" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="12">
         <v>0.63</v>
@@ -2084,17 +2103,18 @@
       <c r="G13" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12">
         <v>0.6</v>
@@ -2106,17 +2126,18 @@
       <c r="G14" s="15">
         <v>0.454545454545455</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="12">
         <v>0.33</v>
@@ -2128,17 +2149,18 @@
       <c r="G15" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12">
         <v>0.33</v>
@@ -2150,17 +2172,18 @@
       <c r="G16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="12">
         <v>0.8</v>
@@ -2172,17 +2195,18 @@
       <c r="G17" s="15">
         <v>0</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="12">
         <v>0.67</v>
@@ -2194,17 +2218,18 @@
       <c r="G18" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="12">
         <v>0.67</v>
@@ -2216,17 +2241,18 @@
       <c r="G19" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
       <c r="A20" t="s" s="10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="12">
         <v>0.7</v>
@@ -2238,17 +2264,18 @@
       <c r="G20" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" ht="22.35" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="12">
         <v>0</v>
@@ -2260,17 +2287,18 @@
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" ht="22.35" customHeight="1">
       <c r="A22" t="s" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="12">
         <v>0.33</v>
@@ -2282,17 +2310,18 @@
       <c r="G22" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="13"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="12">
         <v>0.6</v>
@@ -2304,17 +2333,18 @@
       <c r="G23" s="15">
         <v>0</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" ht="22.35" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D24" s="12">
         <v>0.6</v>
@@ -2326,17 +2356,20 @@
       <c r="G24" s="15">
         <v>0</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="15">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="I24" s="13"/>
     </row>
     <row r="25" ht="22.35" customHeight="1">
       <c r="A25" t="s" s="10">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="12">
         <v>0</v>
@@ -2348,17 +2381,18 @@
       <c r="G25" s="15">
         <v>0</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" ht="22.35" customHeight="1">
       <c r="A26" t="s" s="10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="12">
         <v>0.6</v>
@@ -2370,17 +2404,18 @@
       <c r="G26" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="13"/>
     </row>
     <row r="27" ht="22.35" customHeight="1">
       <c r="A27" t="s" s="10">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="12">
         <v>0</v>
@@ -2392,17 +2427,18 @@
       <c r="G27" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" ht="22.35" customHeight="1">
       <c r="A28" t="s" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="12">
         <v>0.6</v>
@@ -2414,17 +2450,18 @@
       <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
       <c r="A29" t="s" s="10">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
@@ -2436,17 +2473,18 @@
       <c r="G29" s="15">
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
       <c r="A30" t="s" s="10">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="12">
         <v>0.8</v>
@@ -2458,17 +2496,18 @@
       <c r="G30" s="15">
         <v>0</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" ht="22.35" customHeight="1">
       <c r="A31" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="12">
         <v>0.63</v>
@@ -2480,17 +2519,18 @@
       <c r="G31" s="15">
         <v>0</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" ht="22.35" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32" s="12">
         <v>0</v>
@@ -2502,17 +2542,18 @@
       <c r="G32" s="15">
         <v>0.454545454545455</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="12">
         <v>0</v>
@@ -2524,17 +2565,18 @@
       <c r="G33" s="15">
         <v>0</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" ht="22.35" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
@@ -2546,17 +2588,18 @@
       <c r="G34" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
       <c r="A35" t="s" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D35" s="12">
         <v>0.63</v>
@@ -2568,17 +2611,18 @@
       <c r="G35" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="36" ht="22.35" customHeight="1">
       <c r="A36" t="s" s="10">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12">
         <v>0.33</v>
@@ -2590,17 +2634,18 @@
       <c r="G36" s="15">
         <v>0.9090909090909089</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" ht="22.35" customHeight="1">
       <c r="A37" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D37" s="12">
         <v>0</v>
@@ -2612,17 +2657,18 @@
       <c r="G37" s="15">
         <v>0</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
       <c r="A38" t="s" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="12">
         <v>0.7</v>
@@ -2634,17 +2680,18 @@
       <c r="G38" s="15">
         <v>0</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" ht="22.35" customHeight="1">
       <c r="A39" t="s" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -2656,17 +2703,18 @@
       <c r="G39" s="15">
         <v>0</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" ht="22.35" customHeight="1">
       <c r="A40" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" s="12">
         <v>0</v>
@@ -2678,17 +2726,18 @@
       <c r="G40" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="13"/>
     </row>
     <row r="41" ht="22.35" customHeight="1">
       <c r="A41" t="s" s="10">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D41" s="12">
         <v>0</v>
@@ -2700,17 +2749,18 @@
       <c r="G41" s="15">
         <v>0</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="13"/>
     </row>
     <row r="42" ht="22.35" customHeight="1">
       <c r="A42" t="s" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D42" s="12">
         <v>0</v>
@@ -2722,17 +2772,18 @@
       <c r="G42" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="13"/>
     </row>
     <row r="43" ht="22.35" customHeight="1">
       <c r="A43" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D43" s="12">
         <v>0.6</v>
@@ -2744,17 +2795,18 @@
       <c r="G43" s="15">
         <v>0</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="13"/>
     </row>
     <row r="44" ht="22.35" customHeight="1">
       <c r="A44" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44" s="12">
         <v>0.7</v>
@@ -2766,17 +2818,18 @@
       <c r="G44" s="15">
         <v>0</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="13"/>
     </row>
     <row r="45" ht="22.35" customHeight="1">
       <c r="A45" t="s" s="10">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" s="12">
         <v>0.7</v>
@@ -2788,17 +2841,18 @@
       <c r="G45" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="13"/>
     </row>
     <row r="46" ht="22.35" customHeight="1">
       <c r="A46" t="s" s="10">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" s="12">
         <v>0.7</v>
@@ -2810,17 +2864,18 @@
       <c r="G46" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="13"/>
     </row>
     <row r="47" ht="22.35" customHeight="1">
       <c r="A47" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D47" s="12">
         <v>0.6</v>
@@ -2832,17 +2887,18 @@
       <c r="G47" s="15">
         <v>0</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" ht="22.35" customHeight="1">
       <c r="A48" t="s" s="10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D48" s="12">
         <v>0</v>
@@ -2854,17 +2910,18 @@
       <c r="G48" s="15">
         <v>0</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="13"/>
     </row>
     <row r="49" ht="22.35" customHeight="1">
       <c r="A49" t="s" s="10">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="12">
         <v>0</v>
@@ -2876,17 +2933,18 @@
       <c r="G49" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="13"/>
     </row>
     <row r="50" ht="22.35" customHeight="1">
       <c r="A50" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="12">
         <v>0.67</v>
@@ -2898,17 +2956,18 @@
       <c r="G50" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="13"/>
     </row>
     <row r="51" ht="22.35" customHeight="1">
       <c r="A51" t="s" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D51" s="12">
         <v>0</v>
@@ -2920,17 +2979,18 @@
       <c r="G51" s="15">
         <v>0</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="13"/>
     </row>
     <row r="52" ht="22.35" customHeight="1">
       <c r="A52" t="s" s="10">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D52" s="12">
         <v>0</v>
@@ -2942,17 +3002,18 @@
       <c r="G52" s="15">
         <v>0</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="13"/>
     </row>
     <row r="53" ht="22.35" customHeight="1">
       <c r="A53" t="s" s="10">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D53" s="12">
         <v>0.33</v>
@@ -2964,17 +3025,18 @@
       <c r="G53" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H53" s="13"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="13"/>
     </row>
     <row r="54" ht="22.35" customHeight="1">
       <c r="A54" t="s" s="10">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D54" s="12">
         <v>0</v>
@@ -2986,17 +3048,18 @@
       <c r="G54" s="15">
         <v>0.818181818181818</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="13"/>
     </row>
     <row r="55" ht="22.35" customHeight="1">
       <c r="A55" t="s" s="10">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D55" s="12">
         <v>0.63</v>
@@ -3008,17 +3071,18 @@
       <c r="G55" s="15">
         <v>0.454545454545455</v>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="13"/>
     </row>
     <row r="56" ht="22.35" customHeight="1">
       <c r="A56" t="s" s="10">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" s="12">
         <v>0</v>
@@ -3030,17 +3094,18 @@
       <c r="G56" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="13"/>
     </row>
     <row r="57" ht="22.35" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="12">
         <v>0</v>
@@ -3052,17 +3117,18 @@
       <c r="G57" s="15">
         <v>0</v>
       </c>
-      <c r="H57" s="13"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="13"/>
     </row>
     <row r="58" ht="22.35" customHeight="1">
       <c r="A58" t="s" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D58" s="12">
         <v>0.7</v>
@@ -3074,17 +3140,18 @@
       <c r="G58" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="13"/>
     </row>
     <row r="59" ht="22.35" customHeight="1">
       <c r="A59" t="s" s="10">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" s="12">
         <v>0.67</v>
@@ -3096,17 +3163,20 @@
       <c r="G59" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H59" s="13"/>
+      <c r="H59" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="13"/>
     </row>
     <row r="60" ht="22.35" customHeight="1">
       <c r="A60" t="s" s="10">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" s="12">
         <v>0.63</v>
@@ -3118,17 +3188,18 @@
       <c r="G60" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H60" s="13"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="13"/>
     </row>
     <row r="61" ht="22.35" customHeight="1">
       <c r="A61" t="s" s="10">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D61" s="12">
         <v>0.33</v>
@@ -3140,17 +3211,18 @@
       <c r="G61" s="15">
         <v>0</v>
       </c>
-      <c r="H61" s="13"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="13"/>
     </row>
     <row r="62" ht="22.35" customHeight="1">
       <c r="A62" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" s="12">
         <v>0.33</v>
@@ -3162,17 +3234,18 @@
       <c r="G62" s="15">
         <v>0</v>
       </c>
-      <c r="H62" s="13"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="13"/>
     </row>
     <row r="63" ht="22.35" customHeight="1">
       <c r="A63" t="s" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D63" s="12">
         <v>0</v>
@@ -3184,17 +3257,18 @@
       <c r="G63" s="15">
         <v>0.818181818181818</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" ht="22.35" customHeight="1">
       <c r="A64" t="s" s="10">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D64" s="12">
         <v>0.7</v>
@@ -3206,17 +3280,18 @@
       <c r="G64" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="13"/>
     </row>
     <row r="65" ht="22.35" customHeight="1">
       <c r="A65" t="s" s="10">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D65" s="12">
         <v>0</v>
@@ -3228,17 +3303,18 @@
       <c r="G65" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="13"/>
     </row>
     <row r="66" ht="22.35" customHeight="1">
       <c r="A66" t="s" s="10">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D66" s="12">
         <v>0.63</v>
@@ -3250,17 +3326,18 @@
       <c r="G66" s="15">
         <v>0.818181818181818</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" ht="22.35" customHeight="1">
       <c r="A67" t="s" s="10">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D67" s="12">
         <v>0</v>
@@ -3272,17 +3349,18 @@
       <c r="G67" s="15">
         <v>0</v>
       </c>
-      <c r="H67" s="13"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="13"/>
     </row>
     <row r="68" ht="22.35" customHeight="1">
       <c r="A68" t="s" s="10">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D68" s="12">
         <v>0.7</v>
@@ -3294,17 +3372,18 @@
       <c r="G68" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H68" s="13"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="13"/>
     </row>
     <row r="69" ht="22.35" customHeight="1">
       <c r="A69" t="s" s="10">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D69" s="12">
         <v>0.7</v>
@@ -3316,17 +3395,18 @@
       <c r="G69" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H69" s="13"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="13"/>
     </row>
     <row r="70" ht="22.35" customHeight="1">
       <c r="A70" t="s" s="10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D70" s="12">
         <v>0.7</v>
@@ -3338,17 +3418,18 @@
       <c r="G70" s="15">
         <v>0.181818181818182</v>
       </c>
-      <c r="H70" s="13"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="13"/>
     </row>
     <row r="71" ht="22.35" customHeight="1">
       <c r="A71" t="s" s="10">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D71" s="12">
         <v>0</v>
@@ -3360,17 +3441,18 @@
       <c r="G71" s="15">
         <v>0</v>
       </c>
-      <c r="H71" s="13"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="13"/>
     </row>
     <row r="72" ht="22.35" customHeight="1">
       <c r="A72" t="s" s="10">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D72" s="12">
         <v>0</v>
@@ -3382,17 +3464,18 @@
       <c r="G72" s="15">
         <v>0</v>
       </c>
-      <c r="H72" s="13"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" ht="22.35" customHeight="1">
       <c r="A73" t="s" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="12">
         <v>0</v>
@@ -3404,17 +3487,18 @@
       <c r="G73" s="15">
         <v>0</v>
       </c>
-      <c r="H73" s="13"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="13"/>
     </row>
     <row r="74" ht="22.35" customHeight="1">
       <c r="A74" t="s" s="10">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" s="12">
         <v>0</v>
@@ -3426,17 +3510,18 @@
       <c r="G74" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H74" s="13"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="13"/>
     </row>
     <row r="75" ht="22.35" customHeight="1">
       <c r="A75" t="s" s="10">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D75" s="12">
         <v>0.8</v>
@@ -3448,17 +3533,18 @@
       <c r="G75" s="15">
         <v>0</v>
       </c>
-      <c r="H75" s="13"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="13"/>
     </row>
     <row r="76" ht="22.35" customHeight="1">
       <c r="A76" t="s" s="10">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D76" s="12">
         <v>0.63</v>
@@ -3470,17 +3556,18 @@
       <c r="G76" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" ht="22.35" customHeight="1">
       <c r="A77" t="s" s="10">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D77" s="12">
         <v>0.8</v>
@@ -3492,17 +3579,18 @@
       <c r="G77" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H77" s="13"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="13"/>
     </row>
     <row r="78" ht="22.35" customHeight="1">
       <c r="A78" t="s" s="10">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D78" s="12">
         <v>0.67</v>
@@ -3514,17 +3602,18 @@
       <c r="G78" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H78" s="13"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="13"/>
     </row>
     <row r="79" ht="22.35" customHeight="1">
       <c r="A79" t="s" s="10">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D79" s="12">
         <v>0</v>
@@ -3536,17 +3625,18 @@
       <c r="G79" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H79" s="13"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="13"/>
     </row>
     <row r="80" ht="22.35" customHeight="1">
       <c r="A80" t="s" s="10">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D80" s="12">
         <v>0.67</v>
@@ -3558,17 +3648,18 @@
       <c r="G80" s="15">
         <v>0</v>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" ht="22.35" customHeight="1">
       <c r="A81" t="s" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -3580,17 +3671,18 @@
       <c r="G81" s="15">
         <v>0</v>
       </c>
-      <c r="H81" s="13"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="13"/>
     </row>
     <row r="82" ht="22.35" customHeight="1">
       <c r="A82" t="s" s="10">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D82" s="12">
         <v>0</v>
@@ -3602,17 +3694,18 @@
       <c r="G82" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="13"/>
     </row>
     <row r="83" ht="22.35" customHeight="1">
       <c r="A83" t="s" s="10">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D83" s="12">
         <v>0.67</v>
@@ -3624,17 +3717,18 @@
       <c r="G83" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H83" s="13"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="13"/>
     </row>
     <row r="84" ht="22.35" customHeight="1">
       <c r="A84" t="s" s="10">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D84" s="12">
         <v>0</v>
@@ -3646,17 +3740,18 @@
       <c r="G84" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H84" s="13"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="13"/>
     </row>
     <row r="85" ht="22.35" customHeight="1">
       <c r="A85" t="s" s="10">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D85" s="12">
         <v>0.7</v>
@@ -3668,17 +3763,18 @@
       <c r="G85" s="15">
         <v>0</v>
       </c>
-      <c r="H85" s="13"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="13"/>
     </row>
     <row r="86" ht="22.35" customHeight="1">
       <c r="A86" t="s" s="10">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D86" s="12">
         <v>0</v>
@@ -3690,7 +3786,8 @@
       <c r="G86" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H86" s="13"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -1871,7 +1871,9 @@
       <c r="G3" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="15">
+        <v>0.155555555555556</v>
+      </c>
       <c r="I3" s="13"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
@@ -1917,7 +1919,9 @@
       <c r="G5" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>0.288888888888889</v>
+      </c>
       <c r="I5" s="13"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
@@ -1986,7 +1990,9 @@
       <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="15">
+        <v>0.533333333333333</v>
+      </c>
       <c r="I8" s="13"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
@@ -2057,7 +2063,9 @@
       <c r="G11" s="15">
         <v>0.818181818181818</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>0.533333333333333</v>
+      </c>
       <c r="I11" s="13"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
@@ -2080,7 +2088,9 @@
       <c r="G12" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15">
+        <v>0.333333333333333</v>
+      </c>
       <c r="I12" s="13"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
@@ -2126,7 +2136,9 @@
       <c r="G14" s="15">
         <v>0.454545454545455</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15">
+        <v>0.422222222222222</v>
+      </c>
       <c r="I14" s="13"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
@@ -2172,7 +2184,9 @@
       <c r="G16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="15">
+        <v>0.222222222222222</v>
+      </c>
       <c r="I16" s="13"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
@@ -2195,7 +2209,9 @@
       <c r="G17" s="15">
         <v>0</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="15">
+        <v>0.4</v>
+      </c>
       <c r="I17" s="13"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
@@ -2310,7 +2326,9 @@
       <c r="G22" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="15">
+        <v>0.422222222222222</v>
+      </c>
       <c r="I22" s="13"/>
     </row>
     <row r="23" ht="22.35" customHeight="1">
@@ -2333,7 +2351,9 @@
       <c r="G23" s="15">
         <v>0</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="15">
+        <v>0.222222222222222</v>
+      </c>
       <c r="I23" s="13"/>
     </row>
     <row r="24" ht="22.35" customHeight="1">
@@ -2404,7 +2424,9 @@
       <c r="G26" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="15">
+        <v>0.222222222222222</v>
+      </c>
       <c r="I26" s="13"/>
     </row>
     <row r="27" ht="22.35" customHeight="1">
@@ -2450,7 +2472,9 @@
       <c r="G28" s="15">
         <v>0</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="15">
+        <v>0.177777777777778</v>
+      </c>
       <c r="I28" s="13"/>
     </row>
     <row r="29" ht="22.35" customHeight="1">
@@ -2542,7 +2566,9 @@
       <c r="G32" s="15">
         <v>0.454545454545455</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="15">
+        <v>0.422222222222222</v>
+      </c>
       <c r="I32" s="13"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
@@ -2588,7 +2614,9 @@
       <c r="G34" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="15">
+        <v>0.7333333333333329</v>
+      </c>
       <c r="I34" s="13"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
@@ -2657,7 +2685,9 @@
       <c r="G37" s="15">
         <v>0</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="15">
+        <v>0.511111111111111</v>
+      </c>
       <c r="I37" s="13"/>
     </row>
     <row r="38" ht="22.35" customHeight="1">
@@ -2680,7 +2710,9 @@
       <c r="G38" s="15">
         <v>0</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="15">
+        <v>0.377777777777778</v>
+      </c>
       <c r="I38" s="13"/>
     </row>
     <row r="39" ht="22.35" customHeight="1">
@@ -2726,7 +2758,9 @@
       <c r="G40" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="15">
+        <v>0.266666666666667</v>
+      </c>
       <c r="I40" s="13"/>
     </row>
     <row r="41" ht="22.35" customHeight="1">
@@ -2749,7 +2783,9 @@
       <c r="G41" s="15">
         <v>0</v>
       </c>
-      <c r="H41" s="15"/>
+      <c r="H41" s="15">
+        <v>0.155555555555556</v>
+      </c>
       <c r="I41" s="13"/>
     </row>
     <row r="42" ht="22.35" customHeight="1">
@@ -2772,7 +2808,9 @@
       <c r="G42" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="15">
+        <v>0.688888888888889</v>
+      </c>
       <c r="I42" s="13"/>
     </row>
     <row r="43" ht="22.35" customHeight="1">
@@ -2818,7 +2856,9 @@
       <c r="G44" s="15">
         <v>0</v>
       </c>
-      <c r="H44" s="15"/>
+      <c r="H44" s="15">
+        <v>0.822222222222222</v>
+      </c>
       <c r="I44" s="13"/>
     </row>
     <row r="45" ht="22.35" customHeight="1">
@@ -2910,7 +2950,9 @@
       <c r="G48" s="15">
         <v>0</v>
       </c>
-      <c r="H48" s="15"/>
+      <c r="H48" s="15">
+        <v>0.288888888888889</v>
+      </c>
       <c r="I48" s="13"/>
     </row>
     <row r="49" ht="22.35" customHeight="1">
@@ -2956,7 +2998,9 @@
       <c r="G50" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="15">
+        <v>0.4</v>
+      </c>
       <c r="I50" s="13"/>
     </row>
     <row r="51" ht="22.35" customHeight="1">
@@ -3094,7 +3138,9 @@
       <c r="G56" s="15">
         <v>0.727272727272727</v>
       </c>
-      <c r="H56" s="15"/>
+      <c r="H56" s="15">
+        <v>0.511111111111111</v>
+      </c>
       <c r="I56" s="13"/>
     </row>
     <row r="57" ht="22.35" customHeight="1">
@@ -3140,7 +3186,9 @@
       <c r="G58" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H58" s="15"/>
+      <c r="H58" s="15">
+        <v>0.6</v>
+      </c>
       <c r="I58" s="13"/>
     </row>
     <row r="59" ht="22.35" customHeight="1">
@@ -3280,7 +3328,9 @@
       <c r="G64" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H64" s="15"/>
+      <c r="H64" s="15">
+        <v>0.311111111111111</v>
+      </c>
       <c r="I64" s="13"/>
     </row>
     <row r="65" ht="22.35" customHeight="1">
@@ -3349,7 +3399,9 @@
       <c r="G67" s="15">
         <v>0</v>
       </c>
-      <c r="H67" s="15"/>
+      <c r="H67" s="15">
+        <v>0.555555555555556</v>
+      </c>
       <c r="I67" s="13"/>
     </row>
     <row r="68" ht="22.35" customHeight="1">
@@ -3395,7 +3447,9 @@
       <c r="G69" s="15">
         <v>0.636363636363636</v>
       </c>
-      <c r="H69" s="15"/>
+      <c r="H69" s="15">
+        <v>0.533333333333333</v>
+      </c>
       <c r="I69" s="13"/>
     </row>
     <row r="70" ht="22.35" customHeight="1">
@@ -3510,7 +3564,9 @@
       <c r="G74" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H74" s="15"/>
+      <c r="H74" s="15">
+        <v>0.311111111111111</v>
+      </c>
       <c r="I74" s="13"/>
     </row>
     <row r="75" ht="22.35" customHeight="1">
@@ -3579,7 +3635,9 @@
       <c r="G77" s="15">
         <v>0.272727272727273</v>
       </c>
-      <c r="H77" s="15"/>
+      <c r="H77" s="15">
+        <v>0.311111111111111</v>
+      </c>
       <c r="I77" s="13"/>
     </row>
     <row r="78" ht="22.35" customHeight="1">
@@ -3625,7 +3683,9 @@
       <c r="G79" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H79" s="15"/>
+      <c r="H79" s="15">
+        <v>0.5777777777777779</v>
+      </c>
       <c r="I79" s="13"/>
     </row>
     <row r="80" ht="22.35" customHeight="1">
@@ -3648,7 +3708,9 @@
       <c r="G80" s="15">
         <v>0</v>
       </c>
-      <c r="H80" s="15"/>
+      <c r="H80" s="15">
+        <v>0.355555555555556</v>
+      </c>
       <c r="I80" s="13"/>
     </row>
     <row r="81" ht="22.35" customHeight="1">
@@ -3694,7 +3756,9 @@
       <c r="G82" s="15">
         <v>0.545454545454545</v>
       </c>
-      <c r="H82" s="15"/>
+      <c r="H82" s="15">
+        <v>0.222222222222222</v>
+      </c>
       <c r="I82" s="13"/>
     </row>
     <row r="83" ht="22.35" customHeight="1">
@@ -3786,7 +3850,9 @@
       <c r="G86" s="15">
         <v>0.363636363636364</v>
       </c>
-      <c r="H86" s="15"/>
+      <c r="H86" s="15">
+        <v>0.333333333333333</v>
+      </c>
       <c r="I86" s="13"/>
     </row>
   </sheetData>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -1790,12 +1790,14 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.70312" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.2891" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.40625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9062" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.57812" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.07812" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.72656" style="1" customWidth="1"/>
-    <col min="7" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6406" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.78906" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
     <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1942,7 +1944,7 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="15">
-        <v>0</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="13"/>
@@ -1988,7 +1990,7 @@
         <v>0.5</v>
       </c>
       <c r="G8" s="15">
-        <v>0</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="H8" s="15">
         <v>0.533333333333333</v>
@@ -2013,7 +2015,7 @@
         <v>0.785714285714286</v>
       </c>
       <c r="G9" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H9" s="15">
         <v>0.444444444444444</v>
@@ -2182,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H16" s="15">
         <v>0.222222222222222</v>
@@ -2207,7 +2209,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="G17" s="15">
-        <v>0</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="H17" s="15">
         <v>0.4</v>
@@ -2349,7 +2351,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="G23" s="15">
-        <v>0</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="H23" s="15">
         <v>0.222222222222222</v>
@@ -2399,7 +2401,7 @@
         <v>0.142857142857143</v>
       </c>
       <c r="G25" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="13"/>
@@ -2470,7 +2472,7 @@
         <v>0.357142857142857</v>
       </c>
       <c r="G28" s="15">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="H28" s="15">
         <v>0.177777777777778</v>
@@ -2518,7 +2520,7 @@
         <v>0.785714285714286</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="13"/>
@@ -2541,7 +2543,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="G31" s="15">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="13"/>
@@ -2634,7 +2636,7 @@
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="14">
-        <v>0</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="G35" s="15">
         <v>0.727272727272727</v>
@@ -2683,7 +2685,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="H37" s="15">
         <v>0.511111111111111</v>
@@ -2705,10 +2707,10 @@
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G38" s="15">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="H38" s="15">
         <v>0.377777777777778</v>
@@ -2828,7 +2830,7 @@
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="14">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
@@ -2854,7 +2856,7 @@
         <v>0.5</v>
       </c>
       <c r="G44" s="15">
-        <v>0</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="H44" s="15">
         <v>0.822222222222222</v>
@@ -2922,10 +2924,10 @@
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="14">
-        <v>0</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H47" s="15"/>
       <c r="I47" s="13"/>
@@ -2948,7 +2950,7 @@
         <v>0.428571428571429</v>
       </c>
       <c r="G48" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H48" s="15">
         <v>0.288888888888889</v>
@@ -3021,7 +3023,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="G51" s="15">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="13"/>
@@ -3161,7 +3163,7 @@
         <v>0.642857142857143</v>
       </c>
       <c r="G57" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="13"/>
@@ -3257,7 +3259,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="G61" s="15">
-        <v>0</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="13"/>
@@ -3397,7 +3399,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="G67" s="15">
-        <v>0</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="H67" s="15">
         <v>0.555555555555556</v>
@@ -3470,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="15">
-        <v>0.181818181818182</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="13"/>
@@ -3539,7 +3541,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="G73" s="15">
-        <v>0</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="H73" s="15"/>
       <c r="I73" s="13"/>
@@ -3587,7 +3589,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="G75" s="15">
-        <v>0</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="13"/>
@@ -3706,7 +3708,7 @@
         <v>0.714285714285714</v>
       </c>
       <c r="G80" s="15">
-        <v>0</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="H80" s="15">
         <v>0.355555555555556</v>
@@ -3825,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="15">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="H85" s="15"/>
       <c r="I85" s="13"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>Surname</t>
   </si>
@@ -148,6 +148,12 @@
     <t>H190317J</t>
   </si>
   <si>
+    <t>Chirairo</t>
+  </si>
+  <si>
+    <t>H180231H</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chiremba </t>
   </si>
   <si>
@@ -391,40 +397,43 @@
     <t>Mutenha</t>
   </si>
   <si>
+    <t>H170163X</t>
+  </si>
+  <si>
+    <t>Muzoroza</t>
+  </si>
+  <si>
+    <t>H190119R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngwira </t>
+  </si>
+  <si>
+    <t>H190819A</t>
+  </si>
+  <si>
+    <t>Nyahuye</t>
+  </si>
+  <si>
+    <t>H190284A</t>
+  </si>
+  <si>
+    <t>Nyamayedenga</t>
+  </si>
+  <si>
+    <t>H190235H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyamutswa </t>
+  </si>
+  <si>
+    <t>H190424N</t>
+  </si>
+  <si>
+    <t>Nzenze</t>
+  </si>
+  <si>
     <t>H170164H</t>
-  </si>
-  <si>
-    <t>Muzoroza</t>
-  </si>
-  <si>
-    <t>H190119R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngwira </t>
-  </si>
-  <si>
-    <t>H190819A</t>
-  </si>
-  <si>
-    <t>Nyahuye</t>
-  </si>
-  <si>
-    <t>H190284A</t>
-  </si>
-  <si>
-    <t>Nyamayedenga</t>
-  </si>
-  <si>
-    <t>H190235H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyamutswa </t>
-  </si>
-  <si>
-    <t>H190424N</t>
-  </si>
-  <si>
-    <t>Nzenze</t>
   </si>
   <si>
     <t>Nzvimbo</t>
@@ -651,7 +660,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -662,6 +671,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -699,6 +711,9 @@
     </xf>
     <xf numFmtId="59" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1781,7 +1796,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1826,2036 +1841,2157 @@
       <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" t="s" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="5">
+      <c r="B2" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9">
         <v>0.714285714285714</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>0.454545454545455</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="10">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="10">
+      <c r="A3" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="11">
+      <c r="B3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14">
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="16">
         <v>0.155555555555556</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14">
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="A5" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
         <v>0.288888888888889</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="10">
+      <c r="A6" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C6" t="s" s="11">
+      <c r="C6" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15">
         <v>0.5</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="16">
+        <v>0.288888888888889</v>
+      </c>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="A7" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="B7" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="11">
+      <c r="B7" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>0.7</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
+      <c r="E7" s="14"/>
+      <c r="F7" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>0.181818181818182</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="16">
+        <v>0.5777777777777779</v>
+      </c>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="10">
+      <c r="A8" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s" s="11">
+      <c r="B8" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15">
         <v>0.5</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="16">
         <v>0.533333333333333</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="A9" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s" s="11">
+      <c r="B9" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>0.7</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
+      <c r="E9" s="14"/>
+      <c r="F9" s="15">
         <v>0.785714285714286</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="16">
         <v>0.444444444444444</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="10">
+      <c r="A10" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
         <v>0.272727272727273</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="10">
+      <c r="A11" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="B11" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14">
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15">
         <v>0.785714285714286</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="16">
         <v>0.533333333333333</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="10">
+      <c r="A12" t="s" s="11">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="10">
+      <c r="B12" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14">
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>0.272727272727273</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" t="s" s="10">
+      <c r="A13" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s" s="11">
+      <c r="B13" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s" s="12">
         <v>33</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>0.63</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="E13" s="14"/>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="10">
+      <c r="A14" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s" s="11">
+      <c r="B14" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s" s="12">
         <v>35</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>0.6</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14">
+      <c r="E14" s="14"/>
+      <c r="F14" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="16">
         <v>0.454545454545455</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="16">
         <v>0.422222222222222</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="10">
+      <c r="A15" t="s" s="11">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" t="s" s="12">
         <v>36</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>0.33</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14">
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="16">
+        <v>0.622222222222222</v>
+      </c>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="10">
+      <c r="A16" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="B16" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="C16" t="s" s="12">
         <v>38</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <v>0.33</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="E16" s="14"/>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="16">
         <v>0.222222222222222</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="10">
+      <c r="A17" t="s" s="11">
         <v>39</v>
       </c>
-      <c r="B17" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s" s="11">
+      <c r="B17" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s" s="12">
         <v>40</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="13">
         <v>0.8</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14">
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="16">
         <v>0.4</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="A18" t="s" s="11">
         <v>41</v>
       </c>
-      <c r="B18" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s" s="11">
+      <c r="B18" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s" s="12">
         <v>42</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <v>0.67</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="16">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" t="s" s="10">
+      <c r="A19" t="s" s="11">
         <v>43</v>
       </c>
-      <c r="B19" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s" s="11">
+      <c r="B19" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s" s="12">
         <v>44</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>0.67</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="E19" s="14"/>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="13"/>
+      <c r="H19" s="16">
+        <v>0.377777777777778</v>
+      </c>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" t="s" s="10">
+      <c r="A20" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="B20" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s" s="11">
+      <c r="B20" s="17"/>
+      <c r="C20" t="s" s="12">
         <v>46</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.177777777777778</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" ht="22.35" customHeight="1">
+      <c r="A21" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="D21" s="13">
         <v>0.7</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14">
+      <c r="E21" s="14"/>
+      <c r="F21" s="15">
         <v>0.5</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s" s="10">
+      <c r="H21" s="16">
+        <v>0.711111111111111</v>
+      </c>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C21" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s" s="10">
+      <c r="C22" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" ht="22.35" customHeight="1">
+      <c r="A23" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C22" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C23" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13">
         <v>0.33</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14">
+      <c r="E23" s="14"/>
+      <c r="F23" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G23" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="16">
         <v>0.422222222222222</v>
       </c>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" ht="22.35" customHeight="1">
+      <c r="A24" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="D24" s="13">
         <v>0.6</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14">
+      <c r="E24" s="14"/>
+      <c r="F24" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="16">
         <v>0.222222222222222</v>
       </c>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s" s="11">
-        <v>54</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" ht="22.35" customHeight="1">
+      <c r="A25" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>56</v>
+      </c>
+      <c r="D25" s="13">
         <v>0.6</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
         <v>0.444444444444444</v>
       </c>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="10">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14">
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" ht="22.35" customHeight="1">
+      <c r="A26" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>58</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15">
         <v>0.142857142857143</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G26" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" ht="22.35" customHeight="1">
+      <c r="A27" t="s" s="11">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="D27" s="13">
         <v>0.6</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14">
+      <c r="E27" s="14"/>
+      <c r="F27" s="15">
         <v>0.785714285714286</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="16">
         <v>0.272727272727273</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="16">
         <v>0.222222222222222</v>
       </c>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="10">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s" s="10">
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" ht="22.35" customHeight="1">
+      <c r="A28" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="B28" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C27" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14">
+      <c r="C28" t="s" s="12">
+        <v>62</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15">
         <v>0.785714285714286</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="10">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s" s="11">
-        <v>62</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="H28" s="16">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" ht="22.35" customHeight="1">
+      <c r="A29" t="s" s="11">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="D29" s="13">
         <v>0.6</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14">
+      <c r="E29" s="14"/>
+      <c r="F29" s="15">
         <v>0.357142857142857</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G29" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="16">
         <v>0.177777777777778</v>
       </c>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="10">
+      <c r="A30" t="s" s="11">
         <v>65</v>
       </c>
-      <c r="B30" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s" s="11">
+      <c r="B30" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s" s="12">
         <v>66</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" ht="22.35" customHeight="1">
+      <c r="A31" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s" s="12">
+        <v>68</v>
+      </c>
+      <c r="D31" s="13">
         <v>0.8</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14">
+      <c r="E31" s="14"/>
+      <c r="F31" s="15">
         <v>0.785714285714286</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="B31" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="H31" s="16">
+        <v>0.755555555555556</v>
+      </c>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s" s="12">
+        <v>70</v>
+      </c>
+      <c r="D32" s="13">
         <v>0.63</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14">
+      <c r="E32" s="14"/>
+      <c r="F32" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G32" s="16">
         <v>0.454545454545455</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s" s="11">
-        <v>70</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14">
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" ht="22.35" customHeight="1">
+      <c r="A33" t="s" s="11">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="16">
         <v>0.454545454545455</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="16">
         <v>0.422222222222222</v>
       </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s" s="10">
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" ht="22.35" customHeight="1">
+      <c r="A34" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C33" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14">
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s" s="11">
+      <c r="C34" t="s" s="12">
         <v>74</v>
       </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14">
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" ht="22.35" customHeight="1">
+      <c r="A35" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="B35" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s" s="12">
+        <v>76</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="16">
         <v>0.7333333333333329</v>
       </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="I35" s="15"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="11">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="D36" s="13">
         <v>0.63</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14">
+      <c r="E36" s="14"/>
+      <c r="F36" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G36" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="10">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s" s="10">
+      <c r="H36" s="16">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" ht="22.35" customHeight="1">
+      <c r="A37" t="s" s="11">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C36" t="s" s="11">
-        <v>78</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C37" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="D37" s="13">
         <v>0.33</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14">
+      <c r="E37" s="14"/>
+      <c r="F37" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="16">
         <v>0.9090909090909089</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="B37" t="s" s="10">
+      <c r="H37" s="16">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" ht="22.35" customHeight="1">
+      <c r="A38" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C37" t="s" s="11">
-        <v>80</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="14">
+      <c r="C38" t="s" s="12">
+        <v>82</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G38" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="16">
         <v>0.511111111111111</v>
       </c>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s" s="11">
-        <v>82</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" ht="22.35" customHeight="1">
+      <c r="A39" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s" s="12">
+        <v>84</v>
+      </c>
+      <c r="D39" s="13">
         <v>0.7</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14">
+      <c r="E39" s="14"/>
+      <c r="F39" s="15">
         <v>0.5</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="16">
         <v>0.377777777777778</v>
       </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s" s="10">
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" ht="22.35" customHeight="1">
+      <c r="A40" t="s" s="11">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C39" t="s" s="11">
-        <v>84</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="13"/>
-    </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" t="s" s="10">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s" s="10">
+      <c r="C40" t="s" s="12">
+        <v>86</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" ht="22.35" customHeight="1">
+      <c r="A41" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="B41" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C40" t="s" s="11">
-        <v>86</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14">
+      <c r="C41" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="15">
         <v>0.5</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G41" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="16">
         <v>0.266666666666667</v>
       </c>
-      <c r="I40" s="13"/>
-    </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s" s="10">
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" ht="22.35" customHeight="1">
+      <c r="A42" t="s" s="11">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C41" t="s" s="11">
-        <v>88</v>
-      </c>
-      <c r="D41" s="12">
-        <v>0</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14">
+      <c r="C42" t="s" s="12">
+        <v>90</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G41" s="15">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
         <v>0.155555555555556</v>
       </c>
-      <c r="I41" s="13"/>
-    </row>
-    <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="B42" t="s" s="10">
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" ht="22.35" customHeight="1">
+      <c r="A43" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C42" t="s" s="11">
-        <v>90</v>
-      </c>
-      <c r="D42" s="12">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14">
+      <c r="C43" t="s" s="12">
+        <v>92</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H43" s="16">
         <v>0.688888888888889</v>
       </c>
-      <c r="I42" s="13"/>
-    </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s" s="11">
-        <v>92</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" ht="22.35" customHeight="1">
+      <c r="A44" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="D44" s="13">
         <v>0.6</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14">
+      <c r="E44" s="14"/>
+      <c r="F44" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G43" s="15">
-        <v>0</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="44" ht="22.35" customHeight="1">
-      <c r="A44" t="s" s="10">
-        <v>93</v>
-      </c>
-      <c r="B44" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s" s="11">
-        <v>94</v>
-      </c>
-      <c r="D44" s="12">
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" ht="22.35" customHeight="1">
+      <c r="A45" t="s" s="11">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s" s="12">
+        <v>96</v>
+      </c>
+      <c r="D45" s="13">
         <v>0.7</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14">
+      <c r="E45" s="14"/>
+      <c r="F45" s="15">
         <v>0.5</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G45" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H45" s="16">
         <v>0.822222222222222</v>
       </c>
-      <c r="I44" s="13"/>
-    </row>
-    <row r="45" ht="22.35" customHeight="1">
-      <c r="A45" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s" s="11">
-        <v>96</v>
-      </c>
-      <c r="D45" s="12">
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" ht="22.35" customHeight="1">
+      <c r="A46" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="B46" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s" s="12">
+        <v>98</v>
+      </c>
+      <c r="D46" s="13">
         <v>0.7</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14">
+      <c r="E46" s="14"/>
+      <c r="F46" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G46" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" ht="22.35" customHeight="1">
-      <c r="A46" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s" s="11">
-        <v>98</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="H46" s="16">
+        <v>0.177777777777778</v>
+      </c>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" ht="22.35" customHeight="1">
+      <c r="A47" t="s" s="11">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s" s="12">
+        <v>100</v>
+      </c>
+      <c r="D47" s="13">
         <v>0.7</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14">
+      <c r="E47" s="14"/>
+      <c r="F47" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" ht="22.35" customHeight="1">
-      <c r="A47" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s" s="11">
-        <v>100</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="H47" s="16">
+        <v>0.644444444444444</v>
+      </c>
+      <c r="I47" s="15"/>
+    </row>
+    <row r="48" ht="22.35" customHeight="1">
+      <c r="A48" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s" s="12">
+        <v>102</v>
+      </c>
+      <c r="D48" s="13">
         <v>0.6</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14">
+      <c r="E48" s="14"/>
+      <c r="F48" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G48" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" ht="22.35" customHeight="1">
-      <c r="A48" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="B48" t="s" s="10">
+      <c r="H48" s="16">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I48" s="15"/>
+    </row>
+    <row r="49" ht="22.35" customHeight="1">
+      <c r="A49" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C48" t="s" s="11">
-        <v>102</v>
-      </c>
-      <c r="D48" s="12">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14">
+      <c r="C49" t="s" s="12">
+        <v>104</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15">
         <v>0.428571428571429</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H49" s="16">
         <v>0.288888888888889</v>
       </c>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" ht="22.35" customHeight="1">
-      <c r="A49" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="B49" t="s" s="10">
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" ht="22.35" customHeight="1">
+      <c r="A50" t="s" s="11">
+        <v>105</v>
+      </c>
+      <c r="B50" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C49" t="s" s="11">
-        <v>104</v>
-      </c>
-      <c r="D49" s="12">
-        <v>0</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14">
+      <c r="C50" t="s" s="12">
+        <v>106</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G50" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" ht="22.35" customHeight="1">
-      <c r="A50" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="B50" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C50" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="H50" s="16">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="I50" s="15"/>
+    </row>
+    <row r="51" ht="22.35" customHeight="1">
+      <c r="A51" t="s" s="11">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s" s="12">
+        <v>108</v>
+      </c>
+      <c r="D51" s="13">
         <v>0.67</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14">
+      <c r="E51" s="14"/>
+      <c r="F51" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G51" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H51" s="16">
         <v>0.4</v>
       </c>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" ht="22.35" customHeight="1">
-      <c r="A51" t="s" s="10">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s" s="10">
+      <c r="I51" s="15"/>
+    </row>
+    <row r="52" ht="22.35" customHeight="1">
+      <c r="A52" t="s" s="11">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C51" t="s" s="11">
-        <v>108</v>
-      </c>
-      <c r="D51" s="12">
-        <v>0</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14">
+      <c r="C52" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G52" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" ht="22.35" customHeight="1">
-      <c r="A52" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s" s="10">
+      <c r="H52" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" ht="22.35" customHeight="1">
+      <c r="A53" t="s" s="11">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C52" t="s" s="11">
-        <v>110</v>
-      </c>
-      <c r="D52" s="12">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="13"/>
-    </row>
-    <row r="53" ht="22.35" customHeight="1">
-      <c r="A53" t="s" s="10">
-        <v>111</v>
-      </c>
-      <c r="B53" t="s" s="10">
+      <c r="C53" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" ht="22.35" customHeight="1">
+      <c r="A54" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C53" t="s" s="11">
-        <v>112</v>
-      </c>
-      <c r="D53" s="12">
+      <c r="C54" t="s" s="12">
+        <v>114</v>
+      </c>
+      <c r="D54" s="13">
         <v>0.33</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14">
+      <c r="E54" s="14"/>
+      <c r="F54" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G54" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" ht="22.35" customHeight="1">
-      <c r="A54" t="s" s="10">
-        <v>113</v>
-      </c>
-      <c r="B54" t="s" s="10">
+      <c r="H54" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I54" s="15"/>
+    </row>
+    <row r="55" ht="22.35" customHeight="1">
+      <c r="A55" t="s" s="11">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C54" t="s" s="11">
-        <v>114</v>
-      </c>
-      <c r="D54" s="12">
-        <v>0</v>
-      </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="14">
+      <c r="C55" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" ht="22.35" customHeight="1">
-      <c r="A55" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="D55" s="12">
+      <c r="H55" s="16">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" ht="22.35" customHeight="1">
+      <c r="A56" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s" s="12">
+        <v>118</v>
+      </c>
+      <c r="D56" s="13">
         <v>0.63</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="14">
+      <c r="E56" s="14"/>
+      <c r="F56" s="15">
         <v>0.785714285714286</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G56" s="16">
         <v>0.454545454545455</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" ht="22.35" customHeight="1">
-      <c r="A56" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="B56" t="s" s="10">
+      <c r="H56" s="16">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" ht="22.35" customHeight="1">
+      <c r="A57" t="s" s="11">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C56" t="s" s="11">
-        <v>118</v>
-      </c>
-      <c r="D56" s="12">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14">
+      <c r="C57" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H57" s="16">
         <v>0.511111111111111</v>
       </c>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" ht="22.35" customHeight="1">
-      <c r="A57" t="s" s="10">
-        <v>119</v>
-      </c>
-      <c r="B57" t="s" s="10">
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" ht="22.35" customHeight="1">
+      <c r="A58" t="s" s="11">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C57" t="s" s="11">
-        <v>120</v>
-      </c>
-      <c r="D57" s="12">
-        <v>0</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="14">
+      <c r="C58" t="s" s="12">
+        <v>122</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G58" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="13"/>
-    </row>
-    <row r="58" ht="22.35" customHeight="1">
-      <c r="A58" t="s" s="10">
-        <v>121</v>
-      </c>
-      <c r="B58" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s" s="11">
-        <v>122</v>
-      </c>
-      <c r="D58" s="12">
+      <c r="H58" s="16">
+        <v>0.5777777777777779</v>
+      </c>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" ht="22.35" customHeight="1">
+      <c r="A59" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="D59" s="13">
         <v>0.7</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="14">
+      <c r="E59" s="14"/>
+      <c r="F59" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G59" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H59" s="16">
         <v>0.6</v>
       </c>
-      <c r="I58" s="13"/>
-    </row>
-    <row r="59" ht="22.35" customHeight="1">
-      <c r="A59" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="B59" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s" s="11">
-        <v>124</v>
-      </c>
-      <c r="D59" s="12">
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" ht="22.35" customHeight="1">
+      <c r="A60" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s" s="12">
+        <v>126</v>
+      </c>
+      <c r="D60" s="13">
         <v>0.67</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14">
-        <v>0</v>
-      </c>
-      <c r="G59" s="15">
+      <c r="E60" s="14"/>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H60" s="16">
         <v>0.2</v>
       </c>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" ht="22.35" customHeight="1">
-      <c r="A60" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="B60" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s" s="11">
-        <v>126</v>
-      </c>
-      <c r="D60" s="12">
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" ht="22.35" customHeight="1">
+      <c r="A61" t="s" s="11">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s" s="12">
+        <v>128</v>
+      </c>
+      <c r="D61" s="13">
         <v>0.63</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="14">
+      <c r="E61" s="14"/>
+      <c r="F61" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" ht="22.35" customHeight="1">
-      <c r="A61" t="s" s="10">
-        <v>127</v>
-      </c>
-      <c r="B61" t="s" s="10">
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" ht="22.35" customHeight="1">
+      <c r="A62" t="s" s="11">
+        <v>129</v>
+      </c>
+      <c r="B62" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C61" t="s" s="11">
-        <v>128</v>
-      </c>
-      <c r="D61" s="12">
+      <c r="C62" t="s" s="12">
+        <v>130</v>
+      </c>
+      <c r="D62" s="13">
         <v>0.33</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="14">
+      <c r="E62" s="14"/>
+      <c r="F62" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G62" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="13"/>
-    </row>
-    <row r="62" ht="22.35" customHeight="1">
-      <c r="A62" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s" s="10">
+      <c r="H62" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" ht="22.35" customHeight="1">
+      <c r="A63" t="s" s="11">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C62" t="s" s="11">
-        <v>130</v>
-      </c>
-      <c r="D62" s="12">
+      <c r="C63" t="s" s="12">
+        <v>132</v>
+      </c>
+      <c r="D63" s="13">
         <v>0.33</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14">
-        <v>0</v>
-      </c>
-      <c r="G62" s="15">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" ht="22.35" customHeight="1">
-      <c r="A63" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="B63" t="s" s="10">
+      <c r="E63" s="14"/>
+      <c r="F63" s="15">
+        <v>0</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+      <c r="H63" s="16">
+        <v>0</v>
+      </c>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" ht="22.35" customHeight="1">
+      <c r="A64" t="s" s="11">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C63" t="s" s="11">
-        <v>132</v>
-      </c>
-      <c r="D63" s="12">
-        <v>0</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="14">
+      <c r="C64" t="s" s="12">
+        <v>134</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="15">
         <v>0.857142857142857</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G64" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="13"/>
-    </row>
-    <row r="64" ht="22.35" customHeight="1">
-      <c r="A64" t="s" s="10">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s" s="11">
-        <v>134</v>
-      </c>
-      <c r="D64" s="12">
+      <c r="H64" s="16">
+        <v>0.488888888888889</v>
+      </c>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" ht="22.35" customHeight="1">
+      <c r="A65" t="s" s="11">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s" s="12">
+        <v>136</v>
+      </c>
+      <c r="D65" s="13">
         <v>0.7</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="14">
+      <c r="E65" s="14"/>
+      <c r="F65" s="15">
         <v>0.5</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G65" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H65" s="16">
         <v>0.311111111111111</v>
       </c>
-      <c r="I64" s="13"/>
-    </row>
-    <row r="65" ht="22.35" customHeight="1">
-      <c r="A65" t="s" s="10">
-        <v>135</v>
-      </c>
-      <c r="B65" t="s" s="10">
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" ht="22.35" customHeight="1">
+      <c r="A66" t="s" s="11">
+        <v>137</v>
+      </c>
+      <c r="B66" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C65" t="s" s="11">
-        <v>136</v>
-      </c>
-      <c r="D65" s="12">
-        <v>0</v>
-      </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14">
+      <c r="C66" t="s" s="12">
+        <v>138</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0</v>
+      </c>
+      <c r="E66" s="14"/>
+      <c r="F66" s="15">
         <v>0.428571428571429</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G66" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="13"/>
-    </row>
-    <row r="66" ht="22.35" customHeight="1">
-      <c r="A66" t="s" s="10">
-        <v>137</v>
-      </c>
-      <c r="B66" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s" s="11">
-        <v>126</v>
-      </c>
-      <c r="D66" s="12">
+      <c r="H66" s="16">
+        <v>0.244444444444444</v>
+      </c>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" ht="22.35" customHeight="1">
+      <c r="A67" t="s" s="11">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s" s="12">
+        <v>140</v>
+      </c>
+      <c r="D67" s="13">
         <v>0.63</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="14">
+      <c r="E67" s="14"/>
+      <c r="F67" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="13"/>
-    </row>
-    <row r="67" ht="22.35" customHeight="1">
-      <c r="A67" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="B67" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C67" t="s" s="11">
-        <v>139</v>
-      </c>
-      <c r="D67" s="12">
-        <v>0</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="14">
+      <c r="H67" s="16">
+        <v>0</v>
+      </c>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" ht="22.35" customHeight="1">
+      <c r="A68" t="s" s="11">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s" s="12">
+        <v>142</v>
+      </c>
+      <c r="D68" s="13">
+        <v>0</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G68" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H68" s="16">
         <v>0.555555555555556</v>
       </c>
-      <c r="I67" s="13"/>
-    </row>
-    <row r="68" ht="22.35" customHeight="1">
-      <c r="A68" t="s" s="10">
-        <v>140</v>
-      </c>
-      <c r="B68" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s" s="11">
-        <v>141</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" ht="22.35" customHeight="1">
+      <c r="A69" t="s" s="11">
+        <v>143</v>
+      </c>
+      <c r="B69" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s" s="12">
+        <v>144</v>
+      </c>
+      <c r="D69" s="13">
         <v>0.7</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14">
+      <c r="E69" s="14"/>
+      <c r="F69" s="15">
         <v>0.428571428571429</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="13"/>
-    </row>
-    <row r="69" ht="22.35" customHeight="1">
-      <c r="A69" t="s" s="10">
-        <v>142</v>
-      </c>
-      <c r="B69" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s" s="11">
-        <v>143</v>
-      </c>
-      <c r="D69" s="12">
+      <c r="H69" s="16">
+        <v>0.422222222222222</v>
+      </c>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" ht="22.35" customHeight="1">
+      <c r="A70" t="s" s="11">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s" s="12">
+        <v>146</v>
+      </c>
+      <c r="D70" s="13">
         <v>0.7</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14">
+      <c r="E70" s="14"/>
+      <c r="F70" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H70" s="16">
         <v>0.533333333333333</v>
       </c>
-      <c r="I69" s="13"/>
-    </row>
-    <row r="70" ht="22.35" customHeight="1">
-      <c r="A70" t="s" s="10">
-        <v>144</v>
-      </c>
-      <c r="B70" t="s" s="10">
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" ht="22.35" customHeight="1">
+      <c r="A71" t="s" s="11">
+        <v>147</v>
+      </c>
+      <c r="B71" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C70" t="s" s="11">
-        <v>145</v>
-      </c>
-      <c r="D70" s="12">
+      <c r="C71" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="D71" s="13">
         <v>0.7</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14">
-        <v>0</v>
-      </c>
-      <c r="G70" s="15">
+      <c r="E71" s="14"/>
+      <c r="F71" s="15">
+        <v>0</v>
+      </c>
+      <c r="G71" s="16">
         <v>0.818181818181818</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" ht="22.35" customHeight="1">
-      <c r="A71" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="B71" t="s" s="10">
+      <c r="H71" s="16">
+        <v>0</v>
+      </c>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" ht="22.35" customHeight="1">
+      <c r="A72" t="s" s="11">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C71" t="s" s="11">
-        <v>147</v>
-      </c>
-      <c r="D71" s="12">
-        <v>0</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14">
-        <v>0</v>
-      </c>
-      <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="13"/>
-    </row>
-    <row r="72" ht="22.35" customHeight="1">
-      <c r="A72" t="s" s="10">
-        <v>148</v>
-      </c>
-      <c r="B72" t="s" s="10">
+      <c r="C72" t="s" s="12">
+        <v>150</v>
+      </c>
+      <c r="D72" s="13">
+        <v>0</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15">
+        <v>0</v>
+      </c>
+      <c r="G72" s="16">
+        <v>0</v>
+      </c>
+      <c r="H72" s="16">
+        <v>0</v>
+      </c>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" ht="22.35" customHeight="1">
+      <c r="A73" t="s" s="11">
+        <v>151</v>
+      </c>
+      <c r="B73" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C72" t="s" s="11">
-        <v>149</v>
-      </c>
-      <c r="D72" s="12">
-        <v>0</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="14">
-        <v>0</v>
-      </c>
-      <c r="G72" s="15">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="13"/>
-    </row>
-    <row r="73" ht="22.35" customHeight="1">
-      <c r="A73" t="s" s="10">
-        <v>150</v>
-      </c>
-      <c r="B73" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C73" t="s" s="11">
-        <v>151</v>
-      </c>
-      <c r="D73" s="12">
-        <v>0</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14">
+      <c r="C73" t="s" s="12">
+        <v>152</v>
+      </c>
+      <c r="D73" s="13">
+        <v>0</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="15">
+        <v>0</v>
+      </c>
+      <c r="G73" s="16">
+        <v>0</v>
+      </c>
+      <c r="H73" s="16">
+        <v>0</v>
+      </c>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" ht="22.35" customHeight="1">
+      <c r="A74" t="s" s="11">
+        <v>153</v>
+      </c>
+      <c r="B74" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s" s="12">
+        <v>154</v>
+      </c>
+      <c r="D74" s="13">
+        <v>0</v>
+      </c>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G74" s="16">
         <v>0.272727272727273</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="13"/>
-    </row>
-    <row r="74" ht="22.35" customHeight="1">
-      <c r="A74" t="s" s="10">
-        <v>152</v>
-      </c>
-      <c r="B74" t="s" s="10">
+      <c r="H74" s="16">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" ht="22.35" customHeight="1">
+      <c r="A75" t="s" s="11">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C74" t="s" s="11">
-        <v>153</v>
-      </c>
-      <c r="D74" s="12">
-        <v>0</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14">
+      <c r="C75" t="s" s="12">
+        <v>156</v>
+      </c>
+      <c r="D75" s="13">
+        <v>0</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G75" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H75" s="16">
         <v>0.311111111111111</v>
       </c>
-      <c r="I74" s="13"/>
-    </row>
-    <row r="75" ht="22.35" customHeight="1">
-      <c r="A75" t="s" s="10">
-        <v>154</v>
-      </c>
-      <c r="B75" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s" s="11">
-        <v>155</v>
-      </c>
-      <c r="D75" s="12">
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" ht="22.35" customHeight="1">
+      <c r="A76" t="s" s="11">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s" s="12">
+        <v>158</v>
+      </c>
+      <c r="D76" s="13">
         <v>0.8</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="14">
+      <c r="E76" s="14"/>
+      <c r="F76" s="15">
         <v>0.571428571428571</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G76" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="13"/>
-    </row>
-    <row r="76" ht="22.35" customHeight="1">
-      <c r="A76" t="s" s="10">
-        <v>156</v>
-      </c>
-      <c r="B76" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s" s="11">
-        <v>157</v>
-      </c>
-      <c r="D76" s="12">
+      <c r="H76" s="16">
+        <v>0.288888888888889</v>
+      </c>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" ht="22.35" customHeight="1">
+      <c r="A77" t="s" s="11">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s" s="12">
+        <v>160</v>
+      </c>
+      <c r="D77" s="13">
         <v>0.63</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="14">
+      <c r="E77" s="14"/>
+      <c r="F77" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G77" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="13"/>
-    </row>
-    <row r="77" ht="22.35" customHeight="1">
-      <c r="A77" t="s" s="10">
-        <v>158</v>
-      </c>
-      <c r="B77" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s" s="11">
-        <v>159</v>
-      </c>
-      <c r="D77" s="12">
+      <c r="H77" s="16">
+        <v>0</v>
+      </c>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" ht="22.35" customHeight="1">
+      <c r="A78" t="s" s="11">
+        <v>161</v>
+      </c>
+      <c r="B78" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s" s="12">
+        <v>162</v>
+      </c>
+      <c r="D78" s="13">
         <v>0.8</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="14">
+      <c r="E78" s="14"/>
+      <c r="F78" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G78" s="16">
         <v>0.272727272727273</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H78" s="16">
         <v>0.311111111111111</v>
       </c>
-      <c r="I77" s="13"/>
-    </row>
-    <row r="78" ht="22.35" customHeight="1">
-      <c r="A78" t="s" s="10">
-        <v>160</v>
-      </c>
-      <c r="B78" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s" s="11">
-        <v>161</v>
-      </c>
-      <c r="D78" s="12">
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" ht="22.35" customHeight="1">
+      <c r="A79" t="s" s="11">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s" s="12">
+        <v>164</v>
+      </c>
+      <c r="D79" s="13">
         <v>0.67</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="14">
+      <c r="E79" s="14"/>
+      <c r="F79" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="16">
         <v>0.636363636363636</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="13"/>
-    </row>
-    <row r="79" ht="22.35" customHeight="1">
-      <c r="A79" t="s" s="10">
-        <v>162</v>
-      </c>
-      <c r="B79" t="s" s="10">
+      <c r="H79" s="16">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" ht="22.35" customHeight="1">
+      <c r="A80" t="s" s="11">
+        <v>165</v>
+      </c>
+      <c r="B80" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C79" t="s" s="11">
-        <v>163</v>
-      </c>
-      <c r="D79" s="12">
-        <v>0</v>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="14">
+      <c r="C80" t="s" s="12">
+        <v>166</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G80" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H80" s="16">
         <v>0.5777777777777779</v>
       </c>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" ht="22.35" customHeight="1">
-      <c r="A80" t="s" s="10">
-        <v>164</v>
-      </c>
-      <c r="B80" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s" s="11">
-        <v>165</v>
-      </c>
-      <c r="D80" s="12">
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" ht="22.35" customHeight="1">
+      <c r="A81" t="s" s="11">
+        <v>167</v>
+      </c>
+      <c r="B81" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s" s="12">
+        <v>168</v>
+      </c>
+      <c r="D81" s="13">
         <v>0.67</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="14">
+      <c r="E81" s="14"/>
+      <c r="F81" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H81" s="16">
         <v>0.355555555555556</v>
       </c>
-      <c r="I80" s="13"/>
-    </row>
-    <row r="81" ht="22.35" customHeight="1">
-      <c r="A81" t="s" s="10">
-        <v>166</v>
-      </c>
-      <c r="B81" t="s" s="10">
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" ht="22.35" customHeight="1">
+      <c r="A82" t="s" s="11">
+        <v>169</v>
+      </c>
+      <c r="B82" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C81" t="s" s="11">
-        <v>167</v>
-      </c>
-      <c r="D81" s="12">
-        <v>0</v>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="14">
-        <v>0</v>
-      </c>
-      <c r="G81" s="15">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="13"/>
-    </row>
-    <row r="82" ht="22.35" customHeight="1">
-      <c r="A82" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="B82" t="s" s="10">
+      <c r="C82" t="s" s="12">
+        <v>170</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="15">
+        <v>0</v>
+      </c>
+      <c r="G82" s="16">
+        <v>0</v>
+      </c>
+      <c r="H82" s="16">
+        <v>0</v>
+      </c>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" ht="22.35" customHeight="1">
+      <c r="A83" t="s" s="11">
+        <v>171</v>
+      </c>
+      <c r="B83" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C82" t="s" s="11">
-        <v>169</v>
-      </c>
-      <c r="D82" s="12">
-        <v>0</v>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="14">
+      <c r="C83" t="s" s="12">
+        <v>172</v>
+      </c>
+      <c r="D83" s="13">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="15">
         <v>0.642857142857143</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G83" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H83" s="16">
         <v>0.222222222222222</v>
       </c>
-      <c r="I82" s="13"/>
-    </row>
-    <row r="83" ht="22.35" customHeight="1">
-      <c r="A83" t="s" s="10">
-        <v>170</v>
-      </c>
-      <c r="B83" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s" s="11">
-        <v>171</v>
-      </c>
-      <c r="D83" s="12">
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" ht="22.35" customHeight="1">
+      <c r="A84" t="s" s="11">
+        <v>173</v>
+      </c>
+      <c r="B84" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="D84" s="13">
         <v>0.67</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="14">
+      <c r="E84" s="14"/>
+      <c r="F84" s="15">
         <v>0.5</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G84" s="16">
         <v>0.545454545454545</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="13"/>
-    </row>
-    <row r="84" ht="22.35" customHeight="1">
-      <c r="A84" t="s" s="10">
-        <v>172</v>
-      </c>
-      <c r="B84" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s" s="11">
-        <v>173</v>
-      </c>
-      <c r="D84" s="12">
-        <v>0</v>
-      </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="14">
+      <c r="H84" s="16">
+        <v>0.266666666666667</v>
+      </c>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" ht="22.35" customHeight="1">
+      <c r="A85" t="s" s="11">
+        <v>175</v>
+      </c>
+      <c r="B85" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s" s="12">
+        <v>176</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G85" s="16">
         <v>0.727272727272727</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="13"/>
-    </row>
-    <row r="85" ht="22.35" customHeight="1">
-      <c r="A85" t="s" s="10">
-        <v>174</v>
-      </c>
-      <c r="B85" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C85" t="s" s="11">
-        <v>175</v>
-      </c>
-      <c r="D85" s="12">
+      <c r="H85" s="16">
+        <v>0</v>
+      </c>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" ht="22.35" customHeight="1">
+      <c r="A86" t="s" s="11">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s" s="12">
+        <v>178</v>
+      </c>
+      <c r="D86" s="13">
         <v>0.7</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="14">
-        <v>0</v>
-      </c>
-      <c r="G85" s="15">
+      <c r="E86" s="14"/>
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="16">
         <v>0.454545454545455</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="13"/>
-    </row>
-    <row r="86" ht="22.35" customHeight="1">
-      <c r="A86" t="s" s="10">
-        <v>176</v>
-      </c>
-      <c r="B86" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C86" t="s" s="11">
-        <v>177</v>
-      </c>
-      <c r="D86" s="12">
-        <v>0</v>
-      </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="14">
+      <c r="H86" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" ht="22.35" customHeight="1">
+      <c r="A87" t="s" s="11">
+        <v>179</v>
+      </c>
+      <c r="B87" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s" s="12">
+        <v>180</v>
+      </c>
+      <c r="D87" s="13">
+        <v>0</v>
+      </c>
+      <c r="E87" s="14"/>
+      <c r="F87" s="15">
         <v>0.714285714285714</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G87" s="16">
         <v>0.363636363636364</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H87" s="16">
         <v>0.333333333333333</v>
       </c>
-      <c r="I86" s="13"/>
+      <c r="I87" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/2152020cw.xlsx
+++ b/2152020cw.xlsx
@@ -4049,8 +4049,8 @@
       <c r="D77" s="12">
         <v>0.5</v>
       </c>
-      <c r="E77" s="12">
-        <v>0</v>
+      <c r="E77" s="13">
+        <v>0.547169811320755</v>
       </c>
       <c r="F77" s="14">
         <v>0.642857142857143</v>
@@ -4062,8 +4062,7 @@
         <v>0.311111111111111</v>
       </c>
       <c r="I77" s="14">
-        <f>(D77+E77+F77+G77+H77)/5</f>
-        <v>0.363520923520924</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="78" ht="22.35" customHeight="1">
